--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Needs Analysis Survey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="465" windowWidth="26355" windowHeight="15135"/>
+    <workbookView xWindow="5060" yWindow="460" windowWidth="28680" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$53</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -202,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -758,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -814,2068 +819,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>%</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Need to Facilitate the Following Difficulties During TEES</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$56:$M$56</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>5.3536143241177809</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.1242684911046057</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.6716643647435703</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.1553454593587995</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.7427665936881764</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>4.1779770732068933</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$56:$M$56</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>5.3536143241177809</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.1242684911046057</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>4.6716643647435703</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>6.1553454593587995</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.7427665936881764</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>4.1779770732068933</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Bleeding Control</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reaching Structures </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cutting Bone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Keeping the Lens Clean</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Positioning a Graft</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Dissection and Removal of Cholesteatoma</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$54:$M$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>66.916666666666671</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83.041666666666671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.770833333333329</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.229166666666664</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59.666666666666664</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>79.020833333333329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="79818112"/>
-        <c:axId val="79828480"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="79818112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Difficulty</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> during TEES</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79828480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="79828480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Degree</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> of Need</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79818112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Percent of TEES</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$R$3:$R$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0%</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Up to 50%</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50%-90%</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>More than 90%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$S$3:$S$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="80464512"/>
-        <c:axId val="80470784"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="80464512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Percent</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Surgeries Performed Totally Endoscopically</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80470784"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="80470784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Respondents</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80464512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Use</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of TEES Instrument Set</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$V$3:$V$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$W$3:$W$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="80503552"/>
-        <c:axId val="80505472"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="80503552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Use</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of TEES Instrument Set</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80505472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="80505472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Respondents</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80503552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>492124</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>92074</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3302000</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3164,26 +1107,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="120">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3241,14 +1185,14 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E49" si="0">VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
+        <f>VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G49" si="1">VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
+        <f>VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H2">
@@ -3291,44 +1235,44 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42846.740729166668</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>42850.341863425929</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
-        <v>Up to 50%</v>
+        <f>VLOOKUP(D3,$Q$3:$R$6,2,FALSE)</f>
+        <v>50%-90%</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F3, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H3">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L3">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="M3">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3">
@@ -3353,44 +1297,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>42851.497199074074</v>
+        <v>42850.341863425929</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D4,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F4, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4">
@@ -3415,44 +1359,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>42851.497986111113</v>
+        <v>42851.497199074074</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D5,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F5, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5">
@@ -3468,44 +1412,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>42852.408182870371</v>
+        <v>42851.497986111113</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D6,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F6, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J6">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6">
@@ -3521,177 +1465,175 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>42853.406631944446</v>
+        <v>42852.408182870371</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D7,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F7, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="I7">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="J7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30">
+    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>42853.454421296294</v>
+        <v>42852.456296296295</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>Up to 50%</v>
+        <f>VLOOKUP(D8,$Q$3:$R$6,2,FALSE)</f>
+        <v>50%-90%</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
-        <v>No</v>
+        <f>VLOOKUP(F8, $U$3:$V$4, 2, FALSE)</f>
+        <v>Yes</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="L8">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="M8">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42852.557754629626</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(D9,$Q$3:$R$6,2,FALSE)</f>
+        <v>50%-90%</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9, $U$3:$V$4, 2, FALSE)</f>
+        <v>Yes</v>
+      </c>
+      <c r="H9">
+        <v>58</v>
+      </c>
+      <c r="I9">
+        <v>40</v>
+      </c>
+      <c r="J9">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <v>67</v>
+      </c>
+      <c r="L9">
+        <v>56</v>
+      </c>
+      <c r="M9">
+        <v>41</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="45">
-      <c r="A9">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42854.172500000001</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>Up to 50%</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <v>94</v>
-      </c>
-      <c r="J9">
-        <v>92</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>96</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10">
-        <v>2</v>
-      </c>
       <c r="C10" s="1">
-        <v>42846.740729166668</v>
+        <v>42853.406041666669</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>50%-90%</v>
+        <f>VLOOKUP(D10,$Q$3:$R$6,2,FALSE)</f>
+        <v>More than 90%</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F10, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H10">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="I10">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="K10">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M10">
         <v>100</v>
@@ -3701,48 +1643,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>42852.456296296295</v>
+        <v>42853.406631944446</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>50%-90%</v>
+        <f>VLOOKUP(D11,$Q$3:$R$6,2,FALSE)</f>
+        <v>Up to 50%</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F11, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H11">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="I11">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="J11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L11">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>69</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N11" s="3"/>
       <c r="O11">
         <v>2</v>
       </c>
@@ -3750,46 +1690,48 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>42852.557754629626</v>
+        <v>42853.417326388888</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D12,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
+        <f>VLOOKUP(F12, $U$3:$V$4, 2, FALSE)</f>
+        <v>No</v>
       </c>
       <c r="H12">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I12">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="J12">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K12">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="L12">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="M12">
-        <v>41</v>
-      </c>
-      <c r="N12" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="O12">
         <v>2</v>
       </c>
@@ -3797,187 +1739,189 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>42853.417326388888</v>
+        <v>42853.454421296294</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>50%-90%</v>
+        <f>VLOOKUP(D13,$Q$3:$R$6,2,FALSE)</f>
+        <v>Up to 50%</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F13, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I13">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J13">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>42856.556458333333</v>
+        <v>42854.172500000001</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>50%-90%</v>
+        <f>VLOOKUP(D14,$Q$3:$R$6,2,FALSE)</f>
+        <v>Up to 50%</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F14, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H14">
         <v>50</v>
       </c>
       <c r="I14">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K14">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>81</v>
-      </c>
-      <c r="N14" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="O14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>42853.406041666669</v>
+        <v>42854.758842592593</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D15,$Q$3:$R$6,2,FALSE)</f>
         <v>More than 90%</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F15, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H15">
+        <v>64</v>
+      </c>
+      <c r="I15">
+        <v>90</v>
+      </c>
+      <c r="J15">
         <v>99</v>
       </c>
-      <c r="I15">
-        <v>100</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
       <c r="K15">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="O15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="30">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>42854.758842592593</v>
+        <v>42856.556458333333</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>More than 90%</v>
+        <f>VLOOKUP(D16,$Q$3:$R$6,2,FALSE)</f>
+        <v>50%-90%</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F16, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H16">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I16">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J16">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>90</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="N16" s="3"/>
       <c r="O16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="60">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3988,14 +1932,14 @@
         <v>4</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D17,$Q$3:$R$6,2,FALSE)</f>
         <v>More than 90%</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F17, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H17">
@@ -4026,7 +1970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1">
+    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -4034,14 +1978,14 @@
         <v>2</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D18,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F18, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H18" s="8">
@@ -4067,7 +2011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4075,14 +2019,14 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D19,$Q$3:$R$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F19, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H19">
@@ -4108,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4116,14 +2060,14 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D20,$Q$3:$R$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F20, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H20">
@@ -4149,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="45">
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4157,14 +2101,14 @@
         <v>3</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D21,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F21, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H21">
@@ -4195,7 +2139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4203,14 +2147,14 @@
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D22,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F22, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H22">
@@ -4239,7 +2183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1">
+    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -4247,14 +2191,14 @@
         <v>3</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D23,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F23, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H23" s="7">
@@ -4280,7 +2224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4288,14 +2232,14 @@
         <v>3</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D24,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F24, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H24">
@@ -4320,7 +2264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4328,14 +2272,14 @@
         <v>3</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D25,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F25, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H25">
@@ -4358,7 +2302,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4366,14 +2310,14 @@
         <v>4</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D26,$Q$3:$R$6,2,FALSE)</f>
         <v>More than 90%</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F26, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H26">
@@ -4396,7 +2340,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4404,14 +2348,14 @@
         <v>4</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D27,$Q$3:$R$6,2,FALSE)</f>
         <v>More than 90%</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F27, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H27">
@@ -4434,7 +2378,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4442,14 +2386,14 @@
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D28,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F28, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H28">
@@ -4474,7 +2418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4482,14 +2426,14 @@
         <v>4</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D29,$Q$3:$R$6,2,FALSE)</f>
         <v>More than 90%</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F29, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H29">
@@ -4512,7 +2456,7 @@
       </c>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="30">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4520,14 +2464,14 @@
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D30,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F30, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H30">
@@ -4552,7 +2496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4560,14 +2504,14 @@
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D31,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F31, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H31">
@@ -4592,7 +2536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4600,14 +2544,14 @@
         <v>2</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D32,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F32, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H32">
@@ -4630,7 +2574,7 @@
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4638,14 +2582,14 @@
         <v>4</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D33,$Q$3:$R$6,2,FALSE)</f>
         <v>More than 90%</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F33, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H33">
@@ -4670,7 +2614,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4678,14 +2622,14 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D34,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F34, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H34">
@@ -4708,7 +2652,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4716,14 +2660,14 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D35,$Q$3:$R$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F35, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H35">
@@ -4748,7 +2692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="45">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4759,14 +2703,14 @@
         <v>4</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D36,$Q$3:$R$6,2,FALSE)</f>
         <v>More than 90%</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F36, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H36">
@@ -4794,7 +2738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4805,14 +2749,14 @@
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D37,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F37, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H37">
@@ -4838,7 +2782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4849,14 +2793,14 @@
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D38,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F38, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H38">
@@ -4882,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4893,14 +2837,14 @@
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D39,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F39, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H39">
@@ -4926,7 +2870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45">
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4937,14 +2881,14 @@
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D40,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F40, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H40">
@@ -4972,7 +2916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="180">
+    <row r="41" spans="1:15" ht="150" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4983,14 +2927,14 @@
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D41,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F41, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H41">
@@ -5018,7 +2962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5029,14 +2973,14 @@
         <v>2</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D42,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F42, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H42">
@@ -5062,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5073,14 +3017,14 @@
         <v>3</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D43,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F43, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H43">
@@ -5106,7 +3050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="45">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5117,14 +3061,14 @@
         <v>3</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D44,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F44, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H44">
@@ -5152,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="45">
+    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5163,14 +3107,14 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D45,$Q$3:$R$6,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F45, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H45">
@@ -5198,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5209,14 +3153,14 @@
         <v>3</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D46,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F46, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H46">
@@ -5242,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5251,14 +3195,14 @@
         <v>3</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D47,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F47, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H47">
@@ -5286,7 +3230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5295,14 +3239,14 @@
         <v>4</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D48,$Q$3:$R$6,2,FALSE)</f>
         <v>More than 90%</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F48, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H48">
@@ -5328,7 +3272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5337,14 +3281,14 @@
         <v>3</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(D49,$Q$3:$R$6,2,FALSE)</f>
         <v>50%-90%</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP(F49, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H49">
@@ -5370,105 +3314,196 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="str">
+        <f>VLOOKUP(D50,$Q$3:$R$6,2,FALSE)</f>
+        <v>More than 90%</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50, $U$3:$V$4, 2, FALSE)</f>
+        <v>Yes</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <v>75</v>
+      </c>
+      <c r="J50">
+        <v>93</v>
+      </c>
+      <c r="K50">
+        <v>88</v>
+      </c>
+      <c r="L50">
+        <v>84</v>
+      </c>
+      <c r="M50">
+        <v>61</v>
+      </c>
       <c r="N50"/>
-    </row>
-    <row r="54" spans="1:15" s="5" customFormat="1">
-      <c r="A54" s="5" t="s">
+      <c r="O50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H54" s="5">
-        <f>AVERAGE(H2:H53)</f>
-        <v>66.916666666666671</v>
-      </c>
-      <c r="I54" s="5">
-        <f t="shared" ref="I54:M54" si="2">AVERAGE(I2:I53)</f>
-        <v>83.041666666666671</v>
-      </c>
-      <c r="J54" s="5">
-        <f t="shared" si="2"/>
-        <v>67.770833333333329</v>
-      </c>
-      <c r="K54" s="5">
-        <f t="shared" si="2"/>
-        <v>61.229166666666664</v>
-      </c>
-      <c r="L54" s="5">
-        <f t="shared" si="2"/>
-        <v>59.666666666666664</v>
-      </c>
-      <c r="M54" s="5">
-        <f t="shared" si="2"/>
-        <v>79.020833333333329</v>
-      </c>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5">
+        <f>AVERAGE(H1:H50)</f>
+        <v>66.571428571428569</v>
+      </c>
+      <c r="I51" s="5">
+        <f>AVERAGE(I1:I50)</f>
+        <v>82.877551020408163</v>
+      </c>
+      <c r="J51" s="5">
+        <f>AVERAGE(J1:J50)</f>
+        <v>68.285714285714292</v>
+      </c>
+      <c r="K51" s="5">
+        <f>AVERAGE(K1:K50)</f>
+        <v>61.775510204081634</v>
+      </c>
+      <c r="L51" s="5">
+        <f>AVERAGE(L1:L50)</f>
+        <v>60.163265306122447</v>
+      </c>
+      <c r="M51" s="5">
+        <f>AVERAGE(M1:M50)</f>
+        <v>78.65306122448979</v>
+      </c>
+      <c r="N51" s="6"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>14</v>
       </c>
-      <c r="H55">
-        <f>STDEV(H2:H53)</f>
-        <v>25.110676997858498</v>
-      </c>
-      <c r="I55">
-        <f t="shared" ref="I55:M55" si="3">STDEV(I2:I53)</f>
-        <v>19.34453392842024</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="3"/>
-        <v>21.912048160998754</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="3"/>
-        <v>28.871129349734101</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="3"/>
-        <v>26.935962936022538</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="3"/>
-        <v>19.596449508350581</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="5" customFormat="1">
-      <c r="A56" s="5" t="s">
+      <c r="H52">
+        <f>STDEV(H1:H50)</f>
+        <v>24.964975465639856</v>
+      </c>
+      <c r="I52">
+        <f>STDEV(I1:I50)</f>
+        <v>19.176409827638505</v>
+      </c>
+      <c r="J52">
+        <f>STDEV(J1:J50)</f>
+        <v>21.980104640333266</v>
+      </c>
+      <c r="K52">
+        <f>STDEV(K1:K50)</f>
+        <v>28.82364864288412</v>
+      </c>
+      <c r="L52">
+        <f>STDEV(L1:L50)</f>
+        <v>26.879629011247768</v>
+      </c>
+      <c r="M52">
+        <f>STDEV(M1:M50)</f>
+        <v>19.561389500331348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="5">
-        <f>H55/SQRT(22)</f>
-        <v>5.3536143241177809</v>
-      </c>
-      <c r="I56" s="5">
-        <f t="shared" ref="I56:M56" si="4">I55/SQRT(22)</f>
-        <v>4.1242684911046057</v>
-      </c>
-      <c r="J56" s="5">
-        <f t="shared" si="4"/>
-        <v>4.6716643647435703</v>
-      </c>
-      <c r="K56" s="5">
-        <f t="shared" si="4"/>
-        <v>6.1553454593587995</v>
-      </c>
-      <c r="L56" s="5">
-        <f t="shared" si="4"/>
-        <v>5.7427665936881764</v>
-      </c>
-      <c r="M56" s="5">
-        <f t="shared" si="4"/>
-        <v>4.1779770732068933</v>
-      </c>
-      <c r="N56" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5">
+        <f>H52/SQRT(22)</f>
+        <v>5.3225506530746562</v>
+      </c>
+      <c r="I53" s="5">
+        <f>I52/SQRT(22)</f>
+        <v>4.0884243123812967</v>
+      </c>
+      <c r="J53" s="5">
+        <f>J52/SQRT(22)</f>
+        <v>4.686174054890329</v>
+      </c>
+      <c r="K53" s="5">
+        <f>K52/SQRT(22)</f>
+        <v>6.1452225386453128</v>
+      </c>
+      <c r="L53" s="5">
+        <f>L52/SQRT(22)</f>
+        <v>5.7307561605710724</v>
+      </c>
+      <c r="M53" s="5">
+        <f>M52/SQRT(22)</f>
+        <v>4.17050225438176</v>
+      </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54" s="2"/>
+      <c r="O54"/>
+    </row>
+    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56" s="2"/>
+      <c r="O56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O49"/>
-  <sortState ref="A2:O20">
-    <sortCondition ref="D1"/>
+  <autoFilter ref="A1:O53">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:O56">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Needs Analysis Survey/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="460" windowWidth="28680" windowHeight="15660"/>
+    <workbookView xWindow="5055" yWindow="465" windowWidth="28680" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$53</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -207,8 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,27 +1102,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="120">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1185,14 +1179,14 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <f>VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" ref="E2:E33" si="0">VLOOKUP(D2,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" ref="G2:G33" si="1">VLOOKUP(F2, $U$3:$V$4, 2, FALSE)</f>
         <v>Yes</v>
       </c>
       <c r="H2">
@@ -1235,7 +1229,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1246,14 +1240,14 @@
         <v>3</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(D3,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(F3, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H3">
@@ -1297,7 +1291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1308,14 +1302,14 @@
         <v>2</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(D4,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(F4, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H4">
@@ -1359,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1370,14 +1364,14 @@
         <v>2</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(D5,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(F5, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H5">
@@ -1412,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1423,14 +1417,14 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(D6,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(F6, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H6">
@@ -1465,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1476,14 +1470,14 @@
         <v>2</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(D7,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(F7, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H7">
@@ -1509,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1520,14 +1514,14 @@
         <v>3</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(D8,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H8">
@@ -1555,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1566,14 +1560,14 @@
         <v>3</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(D9,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H9">
@@ -1599,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1610,14 +1604,14 @@
         <v>4</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(D10,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>More than 90%</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(F10, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H10">
@@ -1643,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1654,14 +1648,14 @@
         <v>2</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(D11,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(F11, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H11">
@@ -1690,7 +1684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1701,14 +1695,14 @@
         <v>3</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(D12,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(F12, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="H12">
@@ -1739,7 +1733,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1750,14 +1744,14 @@
         <v>2</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(D13,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(F13, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="H13">
@@ -1785,7 +1779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1796,14 +1790,14 @@
         <v>2</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(D14,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H14">
@@ -1831,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1842,14 +1836,14 @@
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(D15,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>More than 90%</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H15">
@@ -1877,7 +1871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1888,14 +1882,14 @@
         <v>3</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(D16,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H16">
@@ -1921,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="60">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1932,14 +1926,14 @@
         <v>4</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(D17,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>More than 90%</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(F17, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H17">
@@ -1970,7 +1964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="8" customFormat="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1978,14 +1972,14 @@
         <v>2</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f>VLOOKUP(D18,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="str">
-        <f>VLOOKUP(F18, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H18" s="8">
@@ -2011,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2019,14 +2013,14 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(D19,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(F19, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="H19">
@@ -2052,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2060,14 +2054,14 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(D20,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(F20, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="H20">
@@ -2093,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2101,14 +2095,14 @@
         <v>3</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(D21,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(F21, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H21">
@@ -2139,7 +2133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2147,14 +2141,14 @@
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(D22,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(F22, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H22">
@@ -2183,7 +2177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="7" customFormat="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2191,14 +2185,14 @@
         <v>3</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>VLOOKUP(D23,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F23" s="7">
         <v>1</v>
       </c>
       <c r="G23" s="7" t="str">
-        <f>VLOOKUP(F23, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H23" s="7">
@@ -2224,7 +2218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2232,14 +2226,14 @@
         <v>3</v>
       </c>
       <c r="E24" t="str">
-        <f>VLOOKUP(D24,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H24">
@@ -2264,7 +2258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2272,14 +2266,14 @@
         <v>3</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(D25,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H25">
@@ -2302,7 +2296,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2310,14 +2304,14 @@
         <v>4</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(D26,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>More than 90%</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="H26">
@@ -2340,7 +2334,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2348,14 +2342,14 @@
         <v>4</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(D27,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>More than 90%</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="H27">
@@ -2378,7 +2372,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2386,14 +2380,14 @@
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(D28,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(F28, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H28">
@@ -2418,7 +2412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2426,14 +2420,14 @@
         <v>4</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(D29,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>More than 90%</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H29">
@@ -2456,7 +2450,7 @@
       </c>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="30">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2464,14 +2458,14 @@
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <f>VLOOKUP(D30,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H30">
@@ -2496,7 +2490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2504,14 +2498,14 @@
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <f>VLOOKUP(D31,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>50%-90%</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="H31">
@@ -2536,7 +2530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2544,14 +2538,14 @@
         <v>2</v>
       </c>
       <c r="E32" t="str">
-        <f>VLOOKUP(D32,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>Up to 50%</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H32">
@@ -2574,7 +2568,7 @@
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2582,14 +2576,14 @@
         <v>4</v>
       </c>
       <c r="E33" t="str">
-        <f>VLOOKUP(D33,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>More than 90%</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F33, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="H33">
@@ -2614,7 +2608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2622,14 +2616,14 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <f>VLOOKUP(D34,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" ref="E34:E65" si="2">VLOOKUP(D34,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" ref="G34:G65" si="3">VLOOKUP(F34, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H34">
@@ -2652,7 +2646,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2660,14 +2654,14 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(D35,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H35">
@@ -2692,7 +2686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2703,14 +2697,14 @@
         <v>4</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(D36,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>More than 90%</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F36, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H36">
@@ -2738,7 +2732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2749,14 +2743,14 @@
         <v>3</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(D37,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H37">
@@ -2782,7 +2776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2793,14 +2787,14 @@
         <v>3</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(D38,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H38">
@@ -2826,7 +2820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2837,14 +2831,14 @@
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(D39,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="H39">
@@ -2870,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2881,14 +2875,14 @@
         <v>3</v>
       </c>
       <c r="E40" t="str">
-        <f>VLOOKUP(D40,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="str">
-        <f>VLOOKUP(F40, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H40">
@@ -2916,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="150" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="180">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2927,14 +2921,14 @@
         <v>3</v>
       </c>
       <c r="E41" t="str">
-        <f>VLOOKUP(D41,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H41">
@@ -2962,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2973,14 +2967,14 @@
         <v>2</v>
       </c>
       <c r="E42" t="str">
-        <f>VLOOKUP(D42,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Up to 50%</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F42, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="H42">
@@ -3006,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3017,14 +3011,14 @@
         <v>3</v>
       </c>
       <c r="E43" t="str">
-        <f>VLOOKUP(D43,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H43">
@@ -3050,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3061,14 +3055,14 @@
         <v>3</v>
       </c>
       <c r="E44" t="str">
-        <f>VLOOKUP(D44,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H44">
@@ -3096,7 +3090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3107,14 +3101,14 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f>VLOOKUP(D45,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F45, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H45">
@@ -3142,7 +3136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3153,14 +3147,14 @@
         <v>3</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(D46,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F46, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H46">
@@ -3186,7 +3180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3195,14 +3189,14 @@
         <v>3</v>
       </c>
       <c r="E47" t="str">
-        <f>VLOOKUP(D47,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>No</v>
       </c>
       <c r="H47">
@@ -3230,7 +3224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3239,14 +3233,14 @@
         <v>4</v>
       </c>
       <c r="E48" t="str">
-        <f>VLOOKUP(D48,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>More than 90%</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H48">
@@ -3272,7 +3266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3281,14 +3275,14 @@
         <v>3</v>
       </c>
       <c r="E49" t="str">
-        <f>VLOOKUP(D49,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>50%-90%</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H49">
@@ -3314,7 +3308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3322,14 +3316,14 @@
         <v>4</v>
       </c>
       <c r="E50" t="str">
-        <f>VLOOKUP(D50,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>More than 90%</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F50, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" si="3"/>
         <v>Yes</v>
       </c>
       <c r="H50">
@@ -3355,7 +3349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51" s="5" t="s">
         <v>13</v>
       </c>
@@ -3366,62 +3360,62 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5">
-        <f>AVERAGE(H1:H50)</f>
+        <f t="shared" ref="H51:M51" si="4">AVERAGE(H1:H50)</f>
         <v>66.571428571428569</v>
       </c>
       <c r="I51" s="5">
-        <f>AVERAGE(I1:I50)</f>
+        <f t="shared" si="4"/>
         <v>82.877551020408163</v>
       </c>
       <c r="J51" s="5">
-        <f>AVERAGE(J1:J50)</f>
+        <f t="shared" si="4"/>
         <v>68.285714285714292</v>
       </c>
       <c r="K51" s="5">
-        <f>AVERAGE(K1:K50)</f>
+        <f t="shared" si="4"/>
         <v>61.775510204081634</v>
       </c>
       <c r="L51" s="5">
-        <f>AVERAGE(L1:L50)</f>
+        <f t="shared" si="4"/>
         <v>60.163265306122447</v>
       </c>
       <c r="M51" s="5">
-        <f>AVERAGE(M1:M50)</f>
+        <f t="shared" si="4"/>
         <v>78.65306122448979</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>14</v>
       </c>
       <c r="H52">
-        <f>STDEV(H1:H50)</f>
+        <f t="shared" ref="H52:M52" si="5">STDEV(H1:H50)</f>
         <v>24.964975465639856</v>
       </c>
       <c r="I52">
-        <f>STDEV(I1:I50)</f>
+        <f t="shared" si="5"/>
         <v>19.176409827638505</v>
       </c>
       <c r="J52">
-        <f>STDEV(J1:J50)</f>
+        <f t="shared" si="5"/>
         <v>21.980104640333266</v>
       </c>
       <c r="K52">
-        <f>STDEV(K1:K50)</f>
+        <f t="shared" si="5"/>
         <v>28.82364864288412</v>
       </c>
       <c r="L52">
-        <f>STDEV(L1:L50)</f>
+        <f t="shared" si="5"/>
         <v>26.879629011247768</v>
       </c>
       <c r="M52">
-        <f>STDEV(M1:M50)</f>
+        <f t="shared" si="5"/>
         <v>19.561389500331348</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53" s="5" t="s">
         <v>15</v>
       </c>
@@ -3432,33 +3426,33 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <f>H52/SQRT(22)</f>
+        <f t="shared" ref="H53:M53" si="6">H52/SQRT(22)</f>
         <v>5.3225506530746562</v>
       </c>
       <c r="I53" s="5">
-        <f>I52/SQRT(22)</f>
+        <f t="shared" si="6"/>
         <v>4.0884243123812967</v>
       </c>
       <c r="J53" s="5">
-        <f>J52/SQRT(22)</f>
+        <f t="shared" si="6"/>
         <v>4.686174054890329</v>
       </c>
       <c r="K53" s="5">
-        <f>K52/SQRT(22)</f>
+        <f t="shared" si="6"/>
         <v>6.1452225386453128</v>
       </c>
       <c r="L53" s="5">
-        <f>L52/SQRT(22)</f>
+        <f t="shared" si="6"/>
         <v>5.7307561605710724</v>
       </c>
       <c r="M53" s="5">
-        <f>M52/SQRT(22)</f>
+        <f t="shared" si="6"/>
         <v>4.17050225438176</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="5" customFormat="1">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -3475,7 +3469,7 @@
       <c r="N54" s="2"/>
       <c r="O54"/>
     </row>
-    <row r="56" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="5" customFormat="1">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -3494,11 +3488,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O53">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="A2:O56">
     <sortCondition ref="A1"/>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -10,7 +10,7 @@
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$57</definedName>
   </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>record_id</t>
   </si>
@@ -197,6 +197,24 @@
   </si>
   <si>
     <t>a scope holder would be one.  It would help two handed technique.  there has been one developed by Dr Mubarak Khan which removed the microscope head from the stand and adapts it to the endoscope.  There has to be a simpler and safer alternative. In fact I do have some ideas that I would be happy to discuss.    Another area is the whirlybirds are not  long enough to dissect cholesteatomas fro the sinus tympani if it is deep.  the instrument needs to be modified.      Arun K. Gadre +1 (502) 381 3398</t>
+  </si>
+  <si>
+    <t>mean &gt;50%</t>
+  </si>
+  <si>
+    <t>stdev &gt;50%</t>
+  </si>
+  <si>
+    <t>stderror &gt;50%</t>
+  </si>
+  <si>
+    <t>mean &lt;50%</t>
+  </si>
+  <si>
+    <t>stdev &lt;50%</t>
+  </si>
+  <si>
+    <t>stderror &lt;50%</t>
   </si>
 </sst>
 </file>
@@ -816,6 +834,462 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-CA"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>% Need to Facilitate Difficulties During TEES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$53:$M$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>3.5664250665199795</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7394871182340723</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1400149486190378</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.1176640918405889</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.839947001606824</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.7944842143330497</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$53:$M$53</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>3.5664250665199795</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7394871182340723</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.1400149486190378</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.1176640918405889</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.839947001606824</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.7944842143330497</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bleeding Control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reaching Structures </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cutting Bone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Keeping the Lens Clean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Positioning a Graft</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dissection and Removal of Cholesteatoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$51:$M$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.877551020408163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.775510204081634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.163265306122447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.65306122448979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="73415680"/>
+        <c:axId val="73434624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="73415680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Difficulty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> During TEES</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73434624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73434624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Degree of Need (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73415680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-CA"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bleeding Control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reaching Structures </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cutting Bone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Keeping the Lens Clean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Positioning a Graft</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dissection and Removal of Cholesteatoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$54:$M$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.020833333333329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.458333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.791666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bleeding Control</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reaching Structures </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cutting Bone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Keeping the Lens Clean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Positioning a Graft</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dissection and Removal of Cholesteatoma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$57:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65.545454545454547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.36363636363636</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.88636363636364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.090909090909093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.454545454545453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="82040320"/>
+        <c:axId val="82041856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="82040320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82041856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82041856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82040320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3257550</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1103,11 +1577,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W56"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1229,7 +1704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1503,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1549,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1593,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1684,7 +2159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30">
+    <row r="12" spans="1:23" ht="30" hidden="1" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1825,7 +2300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="30">
+    <row r="15" spans="1:23" ht="30" hidden="1" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1871,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" ht="15" hidden="1" customHeight="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1915,7 +2390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="60">
+    <row r="17" spans="1:21" ht="60" hidden="1" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2087,7 +2562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="45">
+    <row r="21" spans="1:21" ht="45" hidden="1" customHeight="1">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2177,7 +2652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1">
+    <row r="23" spans="1:21" s="7" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2218,7 +2693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" ht="15" hidden="1" customHeight="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2258,7 +2733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" ht="15" hidden="1" customHeight="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2296,7 +2771,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" ht="15" hidden="1" customHeight="1">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2334,7 +2809,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" ht="15" hidden="1" customHeight="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2412,7 +2887,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" ht="15" hidden="1" customHeight="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2490,7 +2965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" ht="15" hidden="1" customHeight="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2568,7 +3043,7 @@
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row r="33" spans="1:15" ht="45" hidden="1" customHeight="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2616,14 +3091,14 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E65" si="2">VLOOKUP(D34,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" ref="E34:E50" si="2">VLOOKUP(D34,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:G65" si="3">VLOOKUP(F34, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" ref="G34:G50" si="3">VLOOKUP(F34, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H34">
@@ -2686,7 +3161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="45">
+    <row r="36" spans="1:15" ht="45" hidden="1" customHeight="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2732,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2776,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2820,7 +3295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2864,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45">
+    <row r="40" spans="1:15" ht="45" hidden="1" customHeight="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2910,7 +3385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="180">
+    <row r="41" spans="1:15" ht="180" hidden="1" customHeight="1">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3000,7 +3475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3044,7 +3519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="45">
+    <row r="44" spans="1:15" ht="45" hidden="1" customHeight="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3136,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3180,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3224,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3266,7 +3741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3308,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="15" hidden="1" customHeight="1">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3426,28 +3901,28 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5">
-        <f t="shared" ref="H53:M53" si="6">H52/SQRT(22)</f>
-        <v>5.3225506530746562</v>
+        <f>H52/SQRT(49)</f>
+        <v>3.5664250665199795</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="6"/>
-        <v>4.0884243123812967</v>
+        <f t="shared" ref="I53:M53" si="6">I52/SQRT(49)</f>
+        <v>2.7394871182340723</v>
       </c>
       <c r="J53" s="5">
         <f t="shared" si="6"/>
-        <v>4.686174054890329</v>
+        <v>3.1400149486190378</v>
       </c>
       <c r="K53" s="5">
         <f t="shared" si="6"/>
-        <v>6.1452225386453128</v>
+        <v>4.1176640918405889</v>
       </c>
       <c r="L53" s="5">
         <f t="shared" si="6"/>
-        <v>5.7307561605710724</v>
+        <v>3.839947001606824</v>
       </c>
       <c r="M53" s="5">
         <f t="shared" si="6"/>
-        <v>4.17050225438176</v>
+        <v>2.7944842143330497</v>
       </c>
       <c r="N53" s="6"/>
       <c r="O53" s="5"/>
@@ -3459,15 +3934,64 @@
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54">
+        <f>AVERAGE(H3:H50)</f>
+        <v>66.375</v>
+      </c>
+      <c r="I54">
+        <f t="shared" ref="I54:M54" si="7">AVERAGE(I3:I50)</f>
+        <v>83.020833333333329</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>68.375</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>61.458333333333336</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="7"/>
+        <v>78.791666666666671</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55">
+        <f>STDEV(H3:H50)</f>
+        <v>25.190867139382927</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:M55" si="8">STDEV(I3:I50)</f>
+        <v>19.35281559957636</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="8"/>
+        <v>22.203723092061299</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>29.04212518843951</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="8"/>
+        <v>27.13951347186168</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="8"/>
+        <v>19.744062757811463</v>
+      </c>
     </row>
     <row r="56" spans="1:15" s="5" customFormat="1">
       <c r="A56"/>
@@ -3476,18 +4000,131 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
+      <c r="G56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56">
+        <f>H55/7</f>
+        <v>3.5986953056261326</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ref="I56:M56" si="9">I55/7</f>
+        <v>2.7646879427966229</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="9"/>
+        <v>3.1719604417230429</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="9"/>
+        <v>4.1488750269199297</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="9"/>
+        <v>3.8770733531230972</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="9"/>
+        <v>2.8205803939730663</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56"/>
     </row>
+    <row r="57" spans="1:15">
+      <c r="G57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57">
+        <f>AVERAGE(H2:H45)</f>
+        <v>65.545454545454547</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ref="I57:M57" si="10">AVERAGE(I2:I45)</f>
+        <v>82.36363636363636</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="10"/>
+        <v>66.88636363636364</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="10"/>
+        <v>62.090909090909093</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="10"/>
+        <v>57.454545454545453</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58">
+        <f>STDEV(H2:H45)</f>
+        <v>25.056637746062833</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:M58" si="11">STDEV(I2:I45)</f>
+        <v>19.855396910395541</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="11"/>
+        <v>22.030861977975363</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="11"/>
+        <v>28.379339177958137</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="11"/>
+        <v>26.90850522189881</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="11"/>
+        <v>19.945273963733165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="G59" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59">
+        <f>H58/7</f>
+        <v>3.579519678008976</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59:M59" si="12">I58/7</f>
+        <v>2.8364852729136487</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="12"/>
+        <v>3.1472659968536232</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="12"/>
+        <v>4.0541913111368766</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="12"/>
+        <v>3.844072174556973</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="12"/>
+        <v>2.8493248519618808</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O53">
+  <autoFilter ref="A1:O57">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="0"/>
+        <filter val="Up to 50%"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="A2:O56">
@@ -3495,5 +4132,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Needs Analysis Survey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="465" windowWidth="28680" windowHeight="15660"/>
+    <workbookView xWindow="5560" yWindow="560" windowWidth="28680" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$57</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>record_id</t>
   </si>
@@ -199,29 +204,17 @@
     <t>a scope holder would be one.  It would help two handed technique.  there has been one developed by Dr Mubarak Khan which removed the microscope head from the stand and adapts it to the endoscope.  There has to be a simpler and safer alternative. In fact I do have some ideas that I would be happy to discuss.    Another area is the whirlybirds are not  long enough to dissect cholesteatomas fro the sinus tympani if it is deep.  the instrument needs to be modified.      Arun K. Gadre +1 (502) 381 3398</t>
   </si>
   <si>
-    <t>mean &gt;50%</t>
-  </si>
-  <si>
-    <t>stdev &gt;50%</t>
-  </si>
-  <si>
-    <t>stderror &gt;50%</t>
-  </si>
-  <si>
-    <t>mean &lt;50%</t>
-  </si>
-  <si>
-    <t>stdev &lt;50%</t>
-  </si>
-  <si>
-    <t>stderror &lt;50%</t>
+    <t>A mechanic scalpel and/or curette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suction specifically designed for sinus tympani  I use a green light laser. with the safety goggles on and the endoscope its very hard to see the guide light. I usually do this under the microscope </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,462 +827,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
-  <c:style val="1"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>% Need to Facilitate Difficulties During TEES</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$53:$M$53</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>3.5664250665199795</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.7394871182340723</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.1400149486190378</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.1176640918405889</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.839947001606824</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.7944842143330497</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$53:$M$53</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>3.5664250665199795</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.7394871182340723</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.1400149486190378</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.1176640918405889</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3.839947001606824</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2.7944842143330497</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Bleeding Control</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reaching Structures </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cutting Bone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Keeping the Lens Clean</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Positioning a Graft</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Dissection and Removal of Cholesteatoma</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$51:$M$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>66.571428571428569</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.877551020408163</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.285714285714292</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.775510204081634</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60.163265306122447</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78.65306122448979</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="73415680"/>
-        <c:axId val="73434624"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="73415680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Difficulty</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> During TEES</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-CA"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73434624"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="73434624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-CA"/>
-                  <a:t>Degree of Need (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73415680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Bleeding Control</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reaching Structures </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cutting Bone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Keeping the Lens Clean</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Positioning a Graft</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Dissection and Removal of Cholesteatoma</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$54:$M$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>66.375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83.020833333333329</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>68.375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.458333333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78.791666666666671</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Bleeding Control</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reaching Structures </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cutting Bone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Keeping the Lens Clean</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Positioning a Graft</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Dissection and Removal of Cholesteatoma</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EndoscopicEarSurgery_DATA_09-Ma'!$H$57:$M$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>65.545454545454547</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.36363636363636</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66.88636363636364</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.090909090909093</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="82040320"/>
-        <c:axId val="82041856"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="82040320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82041856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="82041856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82040320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3257550</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1576,27 +1113,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P69" sqref="P69"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="120">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1704,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1766,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1828,7 +1364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1881,7 +1417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1934,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1978,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2024,7 +1560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2068,7 +1604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2112,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2159,7 +1695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30" hidden="1" customHeight="1">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2208,7 +1744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30">
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2254,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="45">
+    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2300,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="30" hidden="1" customHeight="1">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2346,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2390,7 +1926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="60" hidden="1" customHeight="1">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2439,7 +1975,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1">
+    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2480,7 +2016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2521,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2562,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="45" hidden="1" customHeight="1">
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2608,7 +2144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2652,7 +2188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2693,7 +2229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2733,7 +2269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2771,7 +2307,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2809,7 +2345,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2847,7 +2383,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2887,7 +2423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2925,7 +2461,7 @@
       </c>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="30">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2965,7 +2501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3005,7 +2541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3043,7 +2579,7 @@
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="45" hidden="1" customHeight="1">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3083,7 +2619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3091,14 +2627,14 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E50" si="2">VLOOKUP(D34,$Q$3:$R$6,2,FALSE)</f>
+        <f t="shared" ref="E34:E52" si="2">VLOOKUP(D34,$Q$3:$R$6,2,FALSE)</f>
         <v>Up to 50%</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ref="G34:G50" si="3">VLOOKUP(F34, $U$3:$V$4, 2, FALSE)</f>
+        <f t="shared" ref="G34:G52" si="3">VLOOKUP(F34, $U$3:$V$4, 2, FALSE)</f>
         <v>No</v>
       </c>
       <c r="H34">
@@ -3121,7 +2657,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3161,7 +2697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="45" hidden="1" customHeight="1">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3207,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3251,7 +2787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3295,7 +2831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3339,7 +2875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45" hidden="1" customHeight="1">
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3385,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="180" hidden="1" customHeight="1">
+    <row r="41" spans="1:15" ht="150" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3431,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3475,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3519,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="45" hidden="1" customHeight="1">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3565,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="45">
+    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3611,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3655,7 +3191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3699,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3741,7 +3277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3783,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3824,314 +3360,241 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>50%-90%</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="H51">
+        <v>98</v>
+      </c>
+      <c r="I51">
+        <v>91</v>
+      </c>
+      <c r="J51">
+        <v>49</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+      <c r="L51">
+        <v>10</v>
+      </c>
+      <c r="M51">
+        <v>50</v>
+      </c>
+      <c r="N51" t="s">
+        <v>54</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>Up to 50%</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>Yes</v>
+      </c>
+      <c r="H52">
+        <v>23</v>
+      </c>
+      <c r="I52">
+        <v>64</v>
+      </c>
+      <c r="J52">
+        <v>32</v>
+      </c>
+      <c r="K52">
+        <v>6</v>
+      </c>
+      <c r="L52">
+        <v>27</v>
+      </c>
+      <c r="M52">
+        <v>16</v>
+      </c>
+      <c r="N52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5">
-        <f t="shared" ref="H51:M51" si="4">AVERAGE(H1:H50)</f>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5">
+        <f t="shared" ref="H55:M55" si="4">AVERAGE(H1:H50)</f>
         <v>66.571428571428569</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I55" s="5">
         <f t="shared" si="4"/>
         <v>82.877551020408163</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J55" s="5">
         <f t="shared" si="4"/>
         <v>68.285714285714292</v>
       </c>
-      <c r="K51" s="5">
-        <f t="shared" si="4"/>
-        <v>61.775510204081634</v>
-      </c>
-      <c r="L51" s="5">
+      <c r="K55" s="5">
+        <f>AVERAGE(K1:K51)</f>
+        <v>61.54</v>
+      </c>
+      <c r="L55" s="5">
         <f t="shared" si="4"/>
         <v>60.163265306122447</v>
       </c>
-      <c r="M51" s="5">
-        <f t="shared" si="4"/>
-        <v>78.65306122448979</v>
-      </c>
-      <c r="N51" s="6"/>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
+      <c r="M55" s="5">
+        <f>AVERAGE(M1:M51)</f>
+        <v>78.08</v>
+      </c>
+      <c r="N55" s="6"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>14</v>
       </c>
-      <c r="H52">
-        <f t="shared" ref="H52:M52" si="5">STDEV(H1:H50)</f>
+      <c r="H56">
+        <f t="shared" ref="H56:M56" si="5">STDEV(H1:H50)</f>
         <v>24.964975465639856</v>
       </c>
-      <c r="I52">
+      <c r="I56">
         <f t="shared" si="5"/>
         <v>19.176409827638505</v>
       </c>
-      <c r="J52">
+      <c r="J56">
         <f t="shared" si="5"/>
         <v>21.980104640333266</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="5"/>
-        <v>28.82364864288412</v>
-      </c>
-      <c r="L52">
+      <c r="K56">
+        <f>STDEV(K1:K51)</f>
+        <v>28.576578107368469</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="5"/>
         <v>26.879629011247768</v>
       </c>
-      <c r="M52">
-        <f t="shared" si="5"/>
-        <v>19.561389500331348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="5" t="s">
+      <c r="M56">
+        <f>STDEV(M1:M51)</f>
+        <v>19.780262271016628</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5">
-        <f>H52/SQRT(49)</f>
-        <v>3.5664250665199795</v>
-      </c>
-      <c r="I53" s="5">
-        <f t="shared" ref="I53:M53" si="6">I52/SQRT(49)</f>
-        <v>2.7394871182340723</v>
-      </c>
-      <c r="J53" s="5">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5">
+        <f t="shared" ref="H57:M57" si="6">H56/SQRT(22)</f>
+        <v>5.3225506530746562</v>
+      </c>
+      <c r="I57" s="5">
         <f t="shared" si="6"/>
-        <v>3.1400149486190378</v>
-      </c>
-      <c r="K53" s="5">
+        <v>4.0884243123812967</v>
+      </c>
+      <c r="J57" s="5">
         <f t="shared" si="6"/>
-        <v>4.1176640918405889</v>
-      </c>
-      <c r="L53" s="5">
+        <v>4.686174054890329</v>
+      </c>
+      <c r="K57" s="5">
         <f t="shared" si="6"/>
-        <v>3.839947001606824</v>
-      </c>
-      <c r="M53" s="5">
+        <v>6.0925469234830114</v>
+      </c>
+      <c r="L57" s="5">
         <f t="shared" si="6"/>
-        <v>2.7944842143330497</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="54" spans="1:15" s="5" customFormat="1">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54">
-        <f>AVERAGE(H3:H50)</f>
-        <v>66.375</v>
-      </c>
-      <c r="I54">
-        <f t="shared" ref="I54:M54" si="7">AVERAGE(I3:I50)</f>
-        <v>83.020833333333329</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="7"/>
-        <v>68.375</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="7"/>
-        <v>61.458333333333336</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="7"/>
-        <v>78.791666666666671</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55">
-        <f>STDEV(H3:H50)</f>
-        <v>25.190867139382927</v>
-      </c>
-      <c r="I55">
-        <f t="shared" ref="I55:M55" si="8">STDEV(I3:I50)</f>
-        <v>19.35281559957636</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="8"/>
-        <v>22.203723092061299</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="8"/>
-        <v>29.04212518843951</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="8"/>
-        <v>27.13951347186168</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="8"/>
-        <v>19.744062757811463</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="5" customFormat="1">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H56">
-        <f>H55/7</f>
-        <v>3.5986953056261326</v>
-      </c>
-      <c r="I56">
-        <f t="shared" ref="I56:M56" si="9">I55/7</f>
-        <v>2.7646879427966229</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="9"/>
-        <v>3.1719604417230429</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="9"/>
-        <v>4.1488750269199297</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="9"/>
-        <v>3.8770733531230972</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="9"/>
-        <v>2.8205803939730663</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="G57" t="s">
-        <v>57</v>
-      </c>
-      <c r="H57">
-        <f>AVERAGE(H2:H45)</f>
-        <v>65.545454545454547</v>
-      </c>
-      <c r="I57">
-        <f t="shared" ref="I57:M57" si="10">AVERAGE(I2:I45)</f>
-        <v>82.36363636363636</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="10"/>
-        <v>66.88636363636364</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="10"/>
-        <v>62.090909090909093</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="10"/>
-        <v>57.454545454545453</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="10"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58">
-        <f>STDEV(H2:H45)</f>
-        <v>25.056637746062833</v>
-      </c>
-      <c r="I58">
-        <f t="shared" ref="I58:M58" si="11">STDEV(I2:I45)</f>
-        <v>19.855396910395541</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="11"/>
-        <v>22.030861977975363</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="11"/>
-        <v>28.379339177958137</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="11"/>
-        <v>26.90850522189881</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="11"/>
-        <v>19.945273963733165</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="G59" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59">
-        <f>H58/7</f>
-        <v>3.579519678008976</v>
-      </c>
-      <c r="I59">
-        <f t="shared" ref="I59:M59" si="12">I58/7</f>
-        <v>2.8364852729136487</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="12"/>
-        <v>3.1472659968536232</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="12"/>
-        <v>4.0541913111368766</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="12"/>
-        <v>3.844072174556973</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="12"/>
-        <v>2.8493248519618808</v>
-      </c>
+        <v>5.7307561605710724</v>
+      </c>
+      <c r="M57" s="5">
+        <f t="shared" si="6"/>
+        <v>4.2171660858825986</v>
+      </c>
+      <c r="N57" s="6"/>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58" s="2"/>
+      <c r="O58"/>
+    </row>
+    <row r="60" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60" s="2"/>
+      <c r="O60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O57">
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="0"/>
-        <filter val="Up to 50%"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6"/>
-  </autoFilter>
+  <autoFilter ref="A1:O57"/>
   <sortState ref="A2:O56">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="560" windowWidth="28680" windowHeight="15660"/>
+    <workbookView xWindow="2020" yWindow="460" windowWidth="25560" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>record_id</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>survey_1_endoscopic_ear_surgery_needs_assessment_complete</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">Suction elevators, should be able to control the amount of suction </t>
@@ -740,7 +737,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -770,6 +767,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1114,11 +1112,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,31 +1145,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>4</v>
@@ -1179,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1218,29 +1217,27 @@
       <c r="M2">
         <v>72</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="N2" s="3"/>
       <c r="O2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
       <c r="U2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1296,13 +1293,13 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1349,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S4">
         <v>8</v>
@@ -1358,13 +1355,13 @@
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1411,13 +1408,13 @@
         <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1464,13 +1461,13 @@
         <v>4</v>
       </c>
       <c r="R6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1554,13 +1551,13 @@
         <v>69</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1648,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1692,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -1735,13 +1732,13 @@
         <v>84</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12">
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.2">
@@ -1784,7 +1781,7 @@
         <v>86</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -1830,7 +1827,7 @@
         <v>96</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -1876,13 +1873,13 @@
         <v>90</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1966,16 +1963,16 @@
         <v>92</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O17">
         <v>2</v>
       </c>
       <c r="U17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2016,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2057,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2135,16 +2132,16 @@
         <v>100</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2182,13 +2179,13 @@
       </c>
       <c r="N22" s="3"/>
       <c r="S22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2226,7 +2223,7 @@
       </c>
       <c r="N23" s="10"/>
       <c r="T23" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -2266,10 +2263,10 @@
         <v>65</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2307,7 +2304,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2345,7 +2342,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2420,10 +2417,10 @@
         <v>100</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2498,7 +2495,7 @@
         <v>71</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -2538,10 +2535,10 @@
         <v>67</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2616,10 +2613,10 @@
         <v>75</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2694,7 +2691,7 @@
         <v>90</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.2">
@@ -2737,13 +2734,13 @@
         <v>53</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2787,7 +2784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2831,7 +2828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2915,7 +2912,7 @@
         <v>100</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O40">
         <v>2</v>
@@ -2961,13 +2958,13 @@
         <v>96</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3011,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3095,7 +3092,7 @@
         <v>67</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O44">
         <v>2</v>
@@ -3141,13 +3138,13 @@
         <v>47</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3229,13 +3226,13 @@
         <v>83</v>
       </c>
       <c r="N47" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3277,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3319,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3396,8 +3393,8 @@
       <c r="M51">
         <v>50</v>
       </c>
-      <c r="N51" t="s">
-        <v>54</v>
+      <c r="N51" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="O51">
         <v>2</v>
@@ -3439,22 +3436,22 @@
       <c r="M52">
         <v>16</v>
       </c>
-      <c r="N52" t="s">
-        <v>55</v>
+      <c r="N52" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="O52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -3463,7 +3460,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5">
-        <f t="shared" ref="H55:M55" si="4">AVERAGE(H1:H50)</f>
+        <f t="shared" ref="H55:L55" si="4">AVERAGE(H1:H50)</f>
         <v>66.571428571428569</v>
       </c>
       <c r="I55" s="5">
@@ -3489,12 +3486,12 @@
       <c r="N55" s="6"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:M56" si="5">STDEV(H1:H50)</f>
+        <f t="shared" ref="H56:L56" si="5">STDEV(H1:H50)</f>
         <v>24.964975465639856</v>
       </c>
       <c r="I56">
@@ -3518,9 +3515,9 @@
         <v>19.780262271016628</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -3590,7 +3587,13 @@
       <c r="O60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O57"/>
+  <autoFilter ref="A1:O57">
+    <filterColumn colId="13">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:O56">
     <sortCondition ref="A1"/>
   </sortState>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Needs Analysis Survey/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="460" windowWidth="25560" windowHeight="15660"/>
+    <workbookView xWindow="2025" yWindow="465" windowWidth="25560" windowHeight="15660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$57</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="57">
   <si>
     <t>record_id</t>
   </si>
@@ -206,12 +203,18 @@
   <si>
     <t xml:space="preserve">suction specifically designed for sinus tympani  I use a green light laser. with the safety goggles on and the endoscope its very hard to see the guide light. I usually do this under the microscope </t>
   </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>Degree of Need</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +828,274 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-CA"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Degree of Need of TEES Challenge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$L$1:$L$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.6852344764801197</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7697907314955232</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0778302772710311</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.495795794278338</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0015213193418901</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.7639009170511755</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$L$1:$L$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>2.6852344764801197</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7697907314955232</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0778302772710311</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.495795794278338</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0015213193418901</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.7639009170511755</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$1:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Reaching Structures </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dissection and Removal of Cholesteatoma</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cutting Bone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bleeding Control</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Keeping the Lens Clean</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Positioning a Graft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>82.877551020408163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.163265306122447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="103875328"/>
+        <c:axId val="103877632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="103875328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Challenge During TEES</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103877632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="103877632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Degree of Need (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103875328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="+mn-lt"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1111,27 +1382,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="120">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1237,7 +1507,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1299,7 +1569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1361,7 +1631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1414,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1467,7 +1737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1511,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1557,7 +1827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1601,7 +1871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1645,7 +1915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1692,7 +1962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1741,7 +2011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1787,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1833,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="30">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1879,7 +2149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1923,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="60">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1972,7 +2242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="8" customFormat="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2013,7 +2283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2054,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2095,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2141,7 +2411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2185,7 +2455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="7" customFormat="1">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2226,7 +2496,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2266,7 +2536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2304,7 +2574,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2342,7 +2612,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2380,7 +2650,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2420,7 +2690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2458,7 +2728,7 @@
       </c>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="30">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2498,7 +2768,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2538,7 +2808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2576,7 +2846,7 @@
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2616,7 +2886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2654,7 +2924,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2694,7 +2964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2740,7 +3010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2784,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2828,7 +3098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2872,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2918,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="150" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="180">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2964,7 +3234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3008,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3052,7 +3322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3098,7 +3368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3144,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3188,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3232,7 +3502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3274,7 +3544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3316,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3357,7 +3627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3400,7 +3670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3443,13 +3713,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55" s="5" t="s">
         <v>12</v>
       </c>
@@ -3460,15 +3730,15 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5">
-        <f t="shared" ref="H55:L55" si="4">AVERAGE(H1:H50)</f>
+        <f>AVERAGE(H1:H50)</f>
         <v>66.571428571428569</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I1:I50)</f>
         <v>82.877551020408163</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J1:J50)</f>
         <v>68.285714285714292</v>
       </c>
       <c r="K55" s="5">
@@ -3476,7 +3746,7 @@
         <v>61.54</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(L1:L50)</f>
         <v>60.163265306122447</v>
       </c>
       <c r="M55" s="5">
@@ -3486,20 +3756,20 @@
       <c r="N55" s="6"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="H56">
-        <f t="shared" ref="H56:L56" si="5">STDEV(H1:H50)</f>
+        <f>STDEV(H1:H50)</f>
         <v>24.964975465639856</v>
       </c>
       <c r="I56">
-        <f t="shared" si="5"/>
+        <f>STDEV(I1:I50)</f>
         <v>19.176409827638505</v>
       </c>
       <c r="J56">
-        <f t="shared" si="5"/>
+        <f>STDEV(J1:J50)</f>
         <v>21.980104640333266</v>
       </c>
       <c r="K56">
@@ -3507,7 +3777,7 @@
         <v>28.576578107368469</v>
       </c>
       <c r="L56">
-        <f t="shared" si="5"/>
+        <f>STDEV(L1:L50)</f>
         <v>26.879629011247768</v>
       </c>
       <c r="M56">
@@ -3515,7 +3785,7 @@
         <v>19.780262271016628</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57" s="5" t="s">
         <v>14</v>
       </c>
@@ -3526,33 +3796,33 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5">
-        <f t="shared" ref="H57:M57" si="6">H56/SQRT(22)</f>
-        <v>5.3225506530746562</v>
+        <f t="shared" ref="H57:M57" si="4">H56/SQRT(51)</f>
+        <v>3.495795794278338</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="6"/>
-        <v>4.0884243123812967</v>
+        <f t="shared" si="4"/>
+        <v>2.6852344764801197</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="6"/>
-        <v>4.686174054890329</v>
+        <f t="shared" si="4"/>
+        <v>3.0778302772710311</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="6"/>
-        <v>6.0925469234830114</v>
+        <f t="shared" si="4"/>
+        <v>4.0015213193418901</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="6"/>
-        <v>5.7307561605710724</v>
+        <f t="shared" si="4"/>
+        <v>3.7639009170511755</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="6"/>
-        <v>4.2171660858825986</v>
+        <f t="shared" si="4"/>
+        <v>2.7697907314955232</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="5" customFormat="1">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3569,7 +3839,7 @@
       <c r="N58" s="2"/>
       <c r="O58"/>
     </row>
-    <row r="60" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="5" customFormat="1">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3588,16 +3858,2622 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O57">
-    <filterColumn colId="13">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <filterColumn colId="13"/>
   </autoFilter>
-  <sortState ref="A2:O56">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="90">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="5">
+        <v>82.877551020408163</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2.6852344764801197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="90">
+      <c r="A2" s="5">
+        <v>66.571428571428569</v>
+      </c>
+      <c r="B2" s="5">
+        <v>82.877551020408163</v>
+      </c>
+      <c r="C2" s="5">
+        <v>68.285714285714292</v>
+      </c>
+      <c r="D2" s="5">
+        <v>61.54</v>
+      </c>
+      <c r="E2" s="5">
+        <v>60.163265306122447</v>
+      </c>
+      <c r="F2" s="5">
+        <v>78.08</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5">
+        <v>78.08</v>
+      </c>
+      <c r="L2" s="5">
+        <v>2.7697907314955232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30">
+      <c r="A3" s="5">
+        <v>3.495795794278338</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2.6852344764801197</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.0778302772710311</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.0015213193418901</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.7639009170511755</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.7697907314955232</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5">
+        <v>68.285714285714292</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3.0778302772710311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30">
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5">
+        <v>66.571428571428569</v>
+      </c>
+      <c r="L4" s="5">
+        <v>3.495795794278338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45">
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="5">
+        <v>61.54</v>
+      </c>
+      <c r="L5" s="5">
+        <v>4.0015213193418901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45">
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="5">
+        <v>60.163265306122447</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3.7639009170511755</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="J1:L6">
+    <sortCondition descending="1" ref="K1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B307"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="F259" sqref="F259"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30">
+      <c r="A44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30">
+      <c r="A46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30">
+      <c r="A47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30">
+      <c r="A51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30">
+      <c r="A52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45">
+      <c r="A54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45">
+      <c r="A55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="45">
+      <c r="A57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45">
+      <c r="A58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="45">
+      <c r="A59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="45">
+      <c r="A61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="45">
+      <c r="A62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45">
+      <c r="A65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="45">
+      <c r="A66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="45">
+      <c r="A67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45">
+      <c r="A68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45">
+      <c r="A69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45">
+      <c r="A70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45">
+      <c r="A71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="45">
+      <c r="A72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="45">
+      <c r="A73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="45">
+      <c r="A74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="45">
+      <c r="A75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="45">
+      <c r="A76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="45">
+      <c r="A77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45">
+      <c r="A78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45">
+      <c r="A79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45">
+      <c r="A80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="45">
+      <c r="A81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="45">
+      <c r="A82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="45">
+      <c r="A83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="45">
+      <c r="A84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="45">
+      <c r="A85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="45">
+      <c r="A86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="45">
+      <c r="A87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="45">
+      <c r="A88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="45">
+      <c r="A89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="45">
+      <c r="A90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="45">
+      <c r="A91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="45">
+      <c r="A92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="45">
+      <c r="A93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="45">
+      <c r="A94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="45">
+      <c r="A95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="45">
+      <c r="A96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="45">
+      <c r="A97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="45">
+      <c r="A98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="45">
+      <c r="A99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="45">
+      <c r="A100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="45">
+      <c r="A101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="45">
+      <c r="A102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="45">
+      <c r="A103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30">
+      <c r="A104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30">
+      <c r="A105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30">
+      <c r="A106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="30">
+      <c r="A107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30">
+      <c r="A108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30">
+      <c r="A109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30">
+      <c r="A110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30">
+      <c r="A111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="30">
+      <c r="A112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30">
+      <c r="A113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="30">
+      <c r="A114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30">
+      <c r="A115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30">
+      <c r="A116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="30">
+      <c r="A117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="30">
+      <c r="A118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="30">
+      <c r="A119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="30">
+      <c r="A120" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="30">
+      <c r="A121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="30">
+      <c r="A122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="30">
+      <c r="A123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="30">
+      <c r="A124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="30">
+      <c r="A125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="30">
+      <c r="A126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30">
+      <c r="A127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30">
+      <c r="A128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="30">
+      <c r="A129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="30">
+      <c r="A130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="30">
+      <c r="A131" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="30">
+      <c r="A132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30">
+      <c r="A133" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="30">
+      <c r="A134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B134">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="30">
+      <c r="A135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="30">
+      <c r="A136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30">
+      <c r="A137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="30">
+      <c r="A138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="30">
+      <c r="A139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="30">
+      <c r="A140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30">
+      <c r="A141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="30">
+      <c r="A142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="30">
+      <c r="A143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B143">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30">
+      <c r="A144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30">
+      <c r="A145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="30">
+      <c r="A146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="30">
+      <c r="A147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="30">
+      <c r="A148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="30">
+      <c r="A149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="30">
+      <c r="A150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="30">
+      <c r="A151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B151">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="30">
+      <c r="A152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="30">
+      <c r="A153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="30">
+      <c r="A154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B154">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="45">
+      <c r="A155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="45">
+      <c r="A156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="45">
+      <c r="A157" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="45">
+      <c r="A158" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="45">
+      <c r="A159" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="45">
+      <c r="A160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="45">
+      <c r="A161" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="45">
+      <c r="A162" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="45">
+      <c r="A163" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="45">
+      <c r="A164" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B164">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="45">
+      <c r="A165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B165">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="45">
+      <c r="A166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="45">
+      <c r="A167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="45">
+      <c r="A168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="45">
+      <c r="A169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="45">
+      <c r="A170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="45">
+      <c r="A171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B171" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="45">
+      <c r="A172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="45">
+      <c r="A173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="45">
+      <c r="A174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B174">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="45">
+      <c r="A175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="45">
+      <c r="A176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B176" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="45">
+      <c r="A177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="45">
+      <c r="A178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="45">
+      <c r="A179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="45">
+      <c r="A180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="45">
+      <c r="A181" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="45">
+      <c r="A182" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="45">
+      <c r="A183" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="45">
+      <c r="A184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="45">
+      <c r="A185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="45">
+      <c r="A186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="45">
+      <c r="A187" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="45">
+      <c r="A188" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="45">
+      <c r="A189" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="45">
+      <c r="A190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="45">
+      <c r="A191" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="45">
+      <c r="A192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="45">
+      <c r="A193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="45">
+      <c r="A194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="45">
+      <c r="A195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="45">
+      <c r="A196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="45">
+      <c r="A197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B197">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="45">
+      <c r="A198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B198">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="45">
+      <c r="A199" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="45">
+      <c r="A200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="45">
+      <c r="A201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="45">
+      <c r="A202" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="45">
+      <c r="A203" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="45">
+      <c r="A204" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="45">
+      <c r="A205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B245">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B246">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B248">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B251">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B252">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B253">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B254">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B255">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B256">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="30">
+      <c r="A257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="30">
+      <c r="A258" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B258">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="30">
+      <c r="A259" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B259">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="30">
+      <c r="A260" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="30">
+      <c r="A261" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B261">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="30">
+      <c r="A262" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B262">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="30">
+      <c r="A263" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B263">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="30">
+      <c r="A264" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="30">
+      <c r="A265" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B265">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="30">
+      <c r="A266" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B266">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="30">
+      <c r="A267" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="30">
+      <c r="A268" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B268">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="30">
+      <c r="A269" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B269">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="30">
+      <c r="A270" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B270">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="30">
+      <c r="A271" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B271">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="30">
+      <c r="A272" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B272">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="30">
+      <c r="A273" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B273" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="30">
+      <c r="A274" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B274">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="30">
+      <c r="A275" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B275">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="30">
+      <c r="A276" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B276">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="30">
+      <c r="A277" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B277">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="30">
+      <c r="A278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B278" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="30">
+      <c r="A279" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B279">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="30">
+      <c r="A280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B280">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="30">
+      <c r="A281" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B281">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="30">
+      <c r="A282" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B282">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="30">
+      <c r="A283" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B283">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="30">
+      <c r="A284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B284">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="30">
+      <c r="A285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B285">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="30">
+      <c r="A286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B286">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="30">
+      <c r="A287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B287">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="30">
+      <c r="A288" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B288">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="30">
+      <c r="A289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B289">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="30">
+      <c r="A290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B290">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="30">
+      <c r="A291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B291">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="30">
+      <c r="A292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B292">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="30">
+      <c r="A293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B293">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="30">
+      <c r="A294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B294">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="30">
+      <c r="A295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B295">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="30">
+      <c r="A296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B296">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="30">
+      <c r="A297" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B297">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="30">
+      <c r="A298" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B298">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="30">
+      <c r="A299" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B299">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="30">
+      <c r="A300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B300">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="30">
+      <c r="A301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B301">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="30">
+      <c r="A302" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B302">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="30">
+      <c r="A303" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B303">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="30">
+      <c r="A304" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B304">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="30">
+      <c r="A305" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B305">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="30">
+      <c r="A306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B306">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="30">
+      <c r="A307" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B307">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Grad-School/Needs Analysis Survey/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="465" windowWidth="25560" windowHeight="15660" activeTab="2"/>
+    <workbookView xWindow="2020" yWindow="460" windowWidth="25560" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$57</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -213,8 +218,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,8 +835,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -849,19 +863,23 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
                 <c:f>Sheet1!$L$1:$L$6</c:f>
@@ -869,22 +887,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.6852344764801197</c:v>
+                    <c:v>2.68523447648012</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.7697907314955232</c:v>
+                    <c:v>2.769790731495523</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0778302772710311</c:v>
+                    <c:v>3.077830277271031</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3.495795794278338</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.0015213193418901</c:v>
+                    <c:v>4.00152131934189</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.7639009170511755</c:v>
+                    <c:v>3.763900917051175</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -896,22 +914,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.6852344764801197</c:v>
+                    <c:v>2.68523447648012</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.7697907314955232</c:v>
+                    <c:v>2.769790731495523</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0778302772710311</c:v>
+                    <c:v>3.077830277271031</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>3.495795794278338</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.0015213193418901</c:v>
+                    <c:v>4.00152131934189</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.7639009170511755</c:v>
+                    <c:v>3.763900917051175</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -950,35 +968,45 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>82.877551020408163</c:v>
+                  <c:v>82.87755102040816</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>78.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.285714285714292</c:v>
+                  <c:v>68.2857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.571428571428569</c:v>
+                  <c:v>66.57142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>61.54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.163265306122447</c:v>
+                  <c:v>60.16326530612244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="103875328"/>
-        <c:axId val="103877632"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2100075696"/>
+        <c:axId val="-2098616352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103875328"/>
+        <c:axId val="-2100075696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -996,21 +1024,26 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103877632"/>
+        <c:crossAx val="-2098616352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103877632"/>
+        <c:axId val="-2098616352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1029,16 +1062,20 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103875328"/>
+        <c:crossAx val="-2100075696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:txPr>
     <a:bodyPr/>
@@ -1055,7 +1092,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1382,26 +1419,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="61" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="120">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1507,7 +1544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1569,7 +1606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1631,7 +1668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1684,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1737,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1781,7 +1818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1827,7 +1864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1871,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1915,7 +1952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1962,7 +1999,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="30">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2011,7 +2048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30">
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2057,7 +2094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="45">
+    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2103,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="30">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2149,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2193,7 +2230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="60">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2242,7 +2279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1">
+    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2283,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2324,7 +2361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2365,7 +2402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="45">
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2411,7 +2448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2455,7 +2492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1">
+    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2496,7 +2533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2536,7 +2573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2574,7 +2611,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2612,7 +2649,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2650,7 +2687,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2690,7 +2727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2728,7 +2765,7 @@
       </c>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="30">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2768,7 +2805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2808,7 +2845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2846,7 +2883,7 @@
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="45">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2886,7 +2923,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2924,7 +2961,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2964,7 +3001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="45">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3010,7 +3047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3054,7 +3091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3098,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3142,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45">
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3188,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="180">
+    <row r="41" spans="1:15" ht="150" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3234,7 +3271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3278,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3322,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="45">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3368,7 +3405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="45">
+    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3414,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3458,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3502,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3544,7 +3581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3586,7 +3623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3627,7 +3664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3670,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3713,13 +3750,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>12</v>
       </c>
@@ -3730,62 +3767,62 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5">
-        <f>AVERAGE(H1:H50)</f>
-        <v>66.571428571428569</v>
+        <f>AVERAGE(H1:H52)</f>
+        <v>66.333333333333329</v>
       </c>
       <c r="I55" s="5">
-        <f>AVERAGE(I1:I50)</f>
-        <v>82.877551020408163</v>
+        <f t="shared" ref="I55:M55" si="4">AVERAGE(I1:I52)</f>
+        <v>82.666666666666671</v>
       </c>
       <c r="J55" s="5">
-        <f>AVERAGE(J1:J50)</f>
-        <v>68.285714285714292</v>
+        <f t="shared" si="4"/>
+        <v>67.196078431372555</v>
       </c>
       <c r="K55" s="5">
-        <f>AVERAGE(K1:K51)</f>
-        <v>61.54</v>
+        <f t="shared" si="4"/>
+        <v>60.450980392156865</v>
       </c>
       <c r="L55" s="5">
-        <f>AVERAGE(L1:L50)</f>
-        <v>60.163265306122447</v>
+        <f t="shared" si="4"/>
+        <v>58.529411764705884</v>
       </c>
       <c r="M55" s="5">
-        <f>AVERAGE(M1:M51)</f>
-        <v>78.08</v>
+        <f t="shared" si="4"/>
+        <v>76.862745098039213</v>
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="H56">
-        <f>STDEV(H1:H50)</f>
-        <v>24.964975465639856</v>
+        <f>STDEV(H1:H52)</f>
+        <v>25.612236658805628</v>
       </c>
       <c r="I56">
-        <f>STDEV(I1:I50)</f>
-        <v>19.176409827638505</v>
+        <f t="shared" ref="I56:M56" si="5">STDEV(I1:I52)</f>
+        <v>19.011224754514537</v>
       </c>
       <c r="J56">
-        <f>STDEV(J1:J50)</f>
-        <v>21.980104640333266</v>
+        <f t="shared" si="5"/>
+        <v>22.279155825877364</v>
       </c>
       <c r="K56">
-        <f>STDEV(K1:K51)</f>
-        <v>28.576578107368469</v>
+        <f t="shared" si="5"/>
+        <v>29.338925491905933</v>
       </c>
       <c r="L56">
-        <f>STDEV(L1:L50)</f>
-        <v>26.879629011247768</v>
+        <f t="shared" si="5"/>
+        <v>27.626330151633589</v>
       </c>
       <c r="M56">
-        <f>STDEV(M1:M51)</f>
-        <v>19.780262271016628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <f t="shared" si="5"/>
+        <v>21.424303589935551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>14</v>
       </c>
@@ -3796,33 +3833,33 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5">
-        <f t="shared" ref="H57:M57" si="4">H56/SQRT(51)</f>
-        <v>3.495795794278338</v>
+        <f t="shared" ref="H57:M57" si="6">H56/SQRT(51)</f>
+        <v>3.5864304900737616</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="4"/>
-        <v>2.6852344764801197</v>
+        <f t="shared" si="6"/>
+        <v>2.6621039396726993</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="4"/>
-        <v>3.0778302772710311</v>
+        <f t="shared" si="6"/>
+        <v>3.1197058191932676</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="4"/>
-        <v>4.0015213193418901</v>
+        <f t="shared" si="6"/>
+        <v>4.1082713053097555</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="4"/>
-        <v>3.7639009170511755</v>
+        <f t="shared" si="6"/>
+        <v>3.8684599906115018</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="4"/>
-        <v>2.7697907314955232</v>
+        <f t="shared" si="6"/>
+        <v>3.0000025631156544</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" s="5" customFormat="1">
+    <row r="58" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3839,7 +3876,7 @@
       <c r="N58" s="2"/>
       <c r="O58"/>
     </row>
-    <row r="60" spans="1:15" s="5" customFormat="1">
+    <row r="60" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -3857,25 +3894,23 @@
       <c r="O60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O57">
-    <filterColumn colId="13"/>
-  </autoFilter>
+  <autoFilter ref="A1:O57"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="90">
+    <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3904,7 +3939,7 @@
         <v>2.6852344764801197</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90">
+    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>66.571428571428569</v>
       </c>
@@ -3933,7 +3968,7 @@
         <v>2.7697907314955232</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>3.495795794278338</v>
       </c>
@@ -3962,7 +3997,7 @@
         <v>3.0778302772710311</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3973,7 +4008,7 @@
         <v>3.495795794278338</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
@@ -3984,7 +4019,7 @@
         <v>4.0015213193418901</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
@@ -4005,19 +4040,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="F259" sqref="F259"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -4025,7 +4060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -4033,7 +4068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -4041,7 +4076,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4049,7 +4084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -4057,7 +4092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -4065,7 +4100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -4073,7 +4108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4081,7 +4116,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4089,7 +4124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -4097,7 +4132,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -4105,7 +4140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -4113,7 +4148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -4121,7 +4156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -4129,7 +4164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -4137,7 +4172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -4145,7 +4180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -4153,7 +4188,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -4161,7 +4196,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -4169,7 +4204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -4177,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -4185,7 +4220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -4193,7 +4228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -4201,7 +4236,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
@@ -4209,7 +4244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -4225,7 +4260,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -4233,7 +4268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -4241,7 +4276,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>15</v>
       </c>
@@ -4249,7 +4284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -4257,7 +4292,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
@@ -4265,7 +4300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
@@ -4273,7 +4308,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -4281,7 +4316,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -4289,7 +4324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>15</v>
       </c>
@@ -4297,7 +4332,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -4305,7 +4340,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
@@ -4313,7 +4348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -4321,7 +4356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
@@ -4329,7 +4364,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>15</v>
       </c>
@@ -4337,7 +4372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="30">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
@@ -4345,7 +4380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
@@ -4353,7 +4388,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="30">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
@@ -4361,7 +4396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>15</v>
       </c>
@@ -4369,7 +4404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>15</v>
       </c>
@@ -4377,7 +4412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>15</v>
       </c>
@@ -4385,7 +4420,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -4393,7 +4428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -4401,7 +4436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -4409,7 +4444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>15</v>
       </c>
@@ -4417,7 +4452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>15</v>
       </c>
@@ -4425,7 +4460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>15</v>
       </c>
@@ -4433,7 +4468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -4441,7 +4476,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -4449,7 +4484,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -4457,7 +4492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -4465,7 +4500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>16</v>
       </c>
@@ -4473,7 +4508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -4481,7 +4516,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>16</v>
       </c>
@@ -4489,7 +4524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>16</v>
       </c>
@@ -4497,7 +4532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
@@ -4505,7 +4540,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
@@ -4513,7 +4548,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>16</v>
       </c>
@@ -4521,7 +4556,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>16</v>
       </c>
@@ -4529,7 +4564,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>16</v>
       </c>
@@ -4537,7 +4572,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>16</v>
       </c>
@@ -4545,7 +4580,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>16</v>
       </c>
@@ -4553,7 +4588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>16</v>
       </c>
@@ -4561,7 +4596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -4569,7 +4604,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>16</v>
       </c>
@@ -4577,7 +4612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
@@ -4585,7 +4620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>16</v>
       </c>
@@ -4593,7 +4628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
@@ -4601,7 +4636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>16</v>
       </c>
@@ -4609,7 +4644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>16</v>
       </c>
@@ -4617,7 +4652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>16</v>
       </c>
@@ -4625,7 +4660,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>16</v>
       </c>
@@ -4633,7 +4668,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>16</v>
       </c>
@@ -4641,7 +4676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>16</v>
       </c>
@@ -4649,7 +4684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>16</v>
       </c>
@@ -4657,7 +4692,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
@@ -4665,7 +4700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>16</v>
       </c>
@@ -4673,7 +4708,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
@@ -4681,7 +4716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>16</v>
       </c>
@@ -4689,7 +4724,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>16</v>
       </c>
@@ -4697,7 +4732,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
@@ -4705,7 +4740,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
@@ -4713,7 +4748,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -4721,7 +4756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>16</v>
       </c>
@@ -4729,7 +4764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>16</v>
       </c>
@@ -4737,7 +4772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>16</v>
       </c>
@@ -4745,7 +4780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>16</v>
       </c>
@@ -4753,7 +4788,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4761,7 +4796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>16</v>
       </c>
@@ -4769,7 +4804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>16</v>
       </c>
@@ -4777,7 +4812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>16</v>
       </c>
@@ -4785,7 +4820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>16</v>
       </c>
@@ -4793,7 +4828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>16</v>
       </c>
@@ -4801,7 +4836,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
@@ -4809,7 +4844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>16</v>
       </c>
@@ -4817,7 +4852,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>16</v>
       </c>
@@ -4825,7 +4860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -4833,7 +4868,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
@@ -4841,7 +4876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>17</v>
       </c>
@@ -4849,7 +4884,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="30">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>17</v>
       </c>
@@ -4857,7 +4892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
@@ -4865,7 +4900,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="30">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>17</v>
       </c>
@@ -4873,7 +4908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -4881,7 +4916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="30">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
@@ -4889,7 +4924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>17</v>
       </c>
@@ -4897,7 +4932,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="30">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>17</v>
       </c>
@@ -4905,7 +4940,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>17</v>
       </c>
@@ -4913,7 +4948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>17</v>
       </c>
@@ -4921,7 +4956,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>17</v>
       </c>
@@ -4929,7 +4964,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>17</v>
       </c>
@@ -4937,7 +4972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>17</v>
       </c>
@@ -4945,7 +4980,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>17</v>
       </c>
@@ -4953,7 +4988,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="30">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>17</v>
       </c>
@@ -4961,7 +4996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>17</v>
       </c>
@@ -4969,7 +5004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>17</v>
       </c>
@@ -4977,7 +5012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>17</v>
       </c>
@@ -4985,7 +5020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>17</v>
       </c>
@@ -4993,7 +5028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>17</v>
       </c>
@@ -5001,7 +5036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>17</v>
       </c>
@@ -5009,7 +5044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>17</v>
       </c>
@@ -5017,7 +5052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>17</v>
       </c>
@@ -5025,7 +5060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="30">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -5033,7 +5068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>17</v>
       </c>
@@ -5041,7 +5076,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>17</v>
       </c>
@@ -5049,7 +5084,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>17</v>
       </c>
@@ -5057,7 +5092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="30">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>17</v>
       </c>
@@ -5065,7 +5100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>17</v>
       </c>
@@ -5073,7 +5108,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="30">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>17</v>
       </c>
@@ -5081,7 +5116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="30">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>17</v>
       </c>
@@ -5089,7 +5124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>17</v>
       </c>
@@ -5097,7 +5132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>17</v>
       </c>
@@ -5105,7 +5140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>17</v>
       </c>
@@ -5113,7 +5148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>17</v>
       </c>
@@ -5121,7 +5156,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="30">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>17</v>
       </c>
@@ -5129,7 +5164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
@@ -5137,7 +5172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>17</v>
       </c>
@@ -5145,7 +5180,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="30">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>17</v>
       </c>
@@ -5153,7 +5188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="30">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>17</v>
       </c>
@@ -5161,7 +5196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>17</v>
       </c>
@@ -5169,7 +5204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>17</v>
       </c>
@@ -5177,7 +5212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="30">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -5185,7 +5220,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="30">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>17</v>
       </c>
@@ -5193,7 +5228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="30">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>17</v>
       </c>
@@ -5201,7 +5236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="30">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>17</v>
       </c>
@@ -5209,7 +5244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="30">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>17</v>
       </c>
@@ -5217,7 +5252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>17</v>
       </c>
@@ -5225,7 +5260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="30">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>17</v>
       </c>
@@ -5233,7 +5268,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="30">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>17</v>
       </c>
@@ -5241,7 +5276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="30">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>17</v>
       </c>
@@ -5249,7 +5284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>18</v>
       </c>
@@ -5257,7 +5292,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>18</v>
       </c>
@@ -5265,7 +5300,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>18</v>
       </c>
@@ -5273,7 +5308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>18</v>
       </c>
@@ -5281,7 +5316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>18</v>
       </c>
@@ -5289,7 +5324,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>18</v>
       </c>
@@ -5297,7 +5332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>18</v>
       </c>
@@ -5305,7 +5340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>18</v>
       </c>
@@ -5313,7 +5348,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>18</v>
       </c>
@@ -5321,7 +5356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>18</v>
       </c>
@@ -5329,7 +5364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>18</v>
       </c>
@@ -5337,7 +5372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -5345,7 +5380,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>18</v>
       </c>
@@ -5353,7 +5388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>18</v>
       </c>
@@ -5361,7 +5396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>18</v>
       </c>
@@ -5369,7 +5404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>18</v>
       </c>
@@ -5377,7 +5412,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>18</v>
       </c>
@@ -5385,7 +5420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>18</v>
       </c>
@@ -5393,7 +5428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>18</v>
       </c>
@@ -5401,7 +5436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>18</v>
       </c>
@@ -5409,7 +5444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>18</v>
       </c>
@@ -5417,7 +5452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>18</v>
       </c>
@@ -5425,7 +5460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>18</v>
       </c>
@@ -5433,7 +5468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>18</v>
       </c>
@@ -5441,7 +5476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>18</v>
       </c>
@@ -5449,7 +5484,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>18</v>
       </c>
@@ -5457,7 +5492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>18</v>
       </c>
@@ -5465,7 +5500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>18</v>
       </c>
@@ -5473,7 +5508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>18</v>
       </c>
@@ -5481,7 +5516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>18</v>
       </c>
@@ -5489,7 +5524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>18</v>
       </c>
@@ -5497,7 +5532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>18</v>
       </c>
@@ -5505,7 +5540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>18</v>
       </c>
@@ -5513,7 +5548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>18</v>
       </c>
@@ -5521,7 +5556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>18</v>
       </c>
@@ -5529,7 +5564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>18</v>
       </c>
@@ -5537,7 +5572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>18</v>
       </c>
@@ -5545,7 +5580,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>18</v>
       </c>
@@ -5553,7 +5588,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>18</v>
       </c>
@@ -5561,7 +5596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>18</v>
       </c>
@@ -5569,7 +5604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>18</v>
       </c>
@@ -5577,7 +5612,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>18</v>
       </c>
@@ -5585,7 +5620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>18</v>
       </c>
@@ -5593,7 +5628,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>18</v>
       </c>
@@ -5601,7 +5636,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>18</v>
       </c>
@@ -5609,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>18</v>
       </c>
@@ -5617,7 +5652,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>18</v>
       </c>
@@ -5625,7 +5660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>18</v>
       </c>
@@ -5633,7 +5668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>18</v>
       </c>
@@ -5641,7 +5676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>18</v>
       </c>
@@ -5649,7 +5684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>18</v>
       </c>
@@ -5657,7 +5692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>19</v>
       </c>
@@ -5665,7 +5700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>19</v>
       </c>
@@ -5673,7 +5708,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>19</v>
       </c>
@@ -5681,7 +5716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>19</v>
       </c>
@@ -5689,7 +5724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>19</v>
       </c>
@@ -5697,7 +5732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>19</v>
       </c>
@@ -5705,7 +5740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>19</v>
       </c>
@@ -5713,7 +5748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>19</v>
       </c>
@@ -5721,7 +5756,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>19</v>
       </c>
@@ -5729,7 +5764,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>19</v>
       </c>
@@ -5737,7 +5772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>19</v>
       </c>
@@ -5745,7 +5780,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>19</v>
       </c>
@@ -5753,7 +5788,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>19</v>
       </c>
@@ -5761,7 +5796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>19</v>
       </c>
@@ -5769,7 +5804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>19</v>
       </c>
@@ -5777,7 +5812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>19</v>
       </c>
@@ -5785,7 +5820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>19</v>
       </c>
@@ -5793,7 +5828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>19</v>
       </c>
@@ -5801,7 +5836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>19</v>
       </c>
@@ -5809,7 +5844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>19</v>
       </c>
@@ -5817,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>19</v>
       </c>
@@ -5825,7 +5860,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>19</v>
       </c>
@@ -5833,7 +5868,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>19</v>
       </c>
@@ -5841,7 +5876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>19</v>
       </c>
@@ -5849,7 +5884,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>19</v>
       </c>
@@ -5857,7 +5892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>19</v>
       </c>
@@ -5865,7 +5900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>19</v>
       </c>
@@ -5873,7 +5908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>19</v>
       </c>
@@ -5881,7 +5916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>19</v>
       </c>
@@ -5889,7 +5924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>19</v>
       </c>
@@ -5897,7 +5932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>19</v>
       </c>
@@ -5905,7 +5940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>19</v>
       </c>
@@ -5913,7 +5948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>19</v>
       </c>
@@ -5921,7 +5956,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>19</v>
       </c>
@@ -5929,7 +5964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>19</v>
       </c>
@@ -5937,7 +5972,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>19</v>
       </c>
@@ -5945,7 +5980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>19</v>
       </c>
@@ -5953,7 +5988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>19</v>
       </c>
@@ -5961,7 +5996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>19</v>
       </c>
@@ -5969,7 +6004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>19</v>
       </c>
@@ -5977,7 +6012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>19</v>
       </c>
@@ -5985,7 +6020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>19</v>
       </c>
@@ -5993,7 +6028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>19</v>
       </c>
@@ -6001,7 +6036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>19</v>
       </c>
@@ -6009,7 +6044,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>19</v>
       </c>
@@ -6017,7 +6052,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>19</v>
       </c>
@@ -6025,7 +6060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>19</v>
       </c>
@@ -6033,7 +6068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>19</v>
       </c>
@@ -6041,7 +6076,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>19</v>
       </c>
@@ -6049,7 +6084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>19</v>
       </c>
@@ -6057,7 +6092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>19</v>
       </c>
@@ -6065,7 +6100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="30">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>20</v>
       </c>
@@ -6073,7 +6108,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="30">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>20</v>
       </c>
@@ -6081,7 +6116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="30">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>20</v>
       </c>
@@ -6089,7 +6124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="30">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>20</v>
       </c>
@@ -6097,7 +6132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="30">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>20</v>
       </c>
@@ -6105,7 +6140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="30">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>20</v>
       </c>
@@ -6113,7 +6148,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="30">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>20</v>
       </c>
@@ -6121,7 +6156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="30">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>20</v>
       </c>
@@ -6129,7 +6164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="30">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>20</v>
       </c>
@@ -6137,7 +6172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="30">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>20</v>
       </c>
@@ -6145,7 +6180,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="30">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>20</v>
       </c>
@@ -6153,7 +6188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="30">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>20</v>
       </c>
@@ -6161,7 +6196,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="30">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>20</v>
       </c>
@@ -6169,7 +6204,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="30">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>20</v>
       </c>
@@ -6177,7 +6212,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="30">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>20</v>
       </c>
@@ -6185,7 +6220,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="30">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>20</v>
       </c>
@@ -6193,7 +6228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="30">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>20</v>
       </c>
@@ -6201,7 +6236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="30">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>20</v>
       </c>
@@ -6209,7 +6244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="30">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>20</v>
       </c>
@@ -6217,7 +6252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="30">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>20</v>
       </c>
@@ -6225,7 +6260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="30">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>20</v>
       </c>
@@ -6233,7 +6268,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="30">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>20</v>
       </c>
@@ -6241,7 +6276,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="30">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>20</v>
       </c>
@@ -6249,7 +6284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="30">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>20</v>
       </c>
@@ -6257,7 +6292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="30">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>20</v>
       </c>
@@ -6265,7 +6300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="30">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>20</v>
       </c>
@@ -6273,7 +6308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="30">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>20</v>
       </c>
@@ -6281,7 +6316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="30">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>20</v>
       </c>
@@ -6289,7 +6324,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="30">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>20</v>
       </c>
@@ -6297,7 +6332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="30">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>20</v>
       </c>
@@ -6305,7 +6340,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="30">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>20</v>
       </c>
@@ -6313,7 +6348,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="30">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>20</v>
       </c>
@@ -6321,7 +6356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="30">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>20</v>
       </c>
@@ -6329,7 +6364,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="30">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>20</v>
       </c>
@@ -6337,7 +6372,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="30">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>20</v>
       </c>
@@ -6345,7 +6380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="30">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>20</v>
       </c>
@@ -6353,7 +6388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="30">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>20</v>
       </c>
@@ -6361,7 +6396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="30">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>20</v>
       </c>
@@ -6369,7 +6404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="30">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>20</v>
       </c>
@@ -6377,7 +6412,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="30">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>20</v>
       </c>
@@ -6385,7 +6420,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="30">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>20</v>
       </c>
@@ -6393,7 +6428,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="30">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>20</v>
       </c>
@@ -6401,7 +6436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="30">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>20</v>
       </c>
@@ -6409,7 +6444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="30">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>20</v>
       </c>
@@ -6417,7 +6452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="30">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>20</v>
       </c>
@@ -6425,7 +6460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="30">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>20</v>
       </c>
@@ -6433,7 +6468,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="30">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>20</v>
       </c>
@@ -6441,7 +6476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="30">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>20</v>
       </c>
@@ -6449,7 +6484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="30">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>20</v>
       </c>
@@ -6457,7 +6492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="30">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>20</v>
       </c>
@@ -6465,7 +6500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="30">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>20</v>
       </c>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="460" windowWidth="25560" windowHeight="15660"/>
+    <workbookView xWindow="1980" yWindow="460" windowWidth="25560" windowHeight="15660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EndoscopicEarSurgery_DATA_09-Ma'!$A$1:$O$52</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="58">
   <si>
     <t>record_id</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Degree of Need</t>
+  </si>
+  <si>
+    <t>median</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -744,6 +747,72 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -777,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="110">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -807,12 +876,78 @@
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -863,6 +998,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -876,68 +1012,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$L$1:$L$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>2.68523447648012</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.769790731495523</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.077830277271031</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.495795794278338</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.00152131934189</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.763900917051175</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$L$1:$L$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="6"/>
-                  <c:pt idx="0">
-                    <c:v>2.68523447648012</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.769790731495523</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.077830277271031</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.495795794278338</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.00152131934189</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>3.763900917051175</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$J$1:$J$6</c:f>
+              <c:f>Sheet1!$K$13:$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -963,27 +1040,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$1:$K$6</c:f>
+              <c:f>Sheet1!$L$13:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>82.87755102040816</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.08</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.2857142857143</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.57142857142857</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.54</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.16326530612244</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,11 +1075,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2100075696"/>
-        <c:axId val="-2098616352"/>
+        <c:axId val="-2135919792"/>
+        <c:axId val="-2130941424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100075696"/>
+        <c:axId val="-2135919792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,13 +1101,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098616352"/>
+        <c:crossAx val="-2130941424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1038,7 +1116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098616352"/>
+        <c:axId val="-2130941424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1057,18 +1135,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>Degree of Need (%)</a:t>
+                  <a:t>Degree of Need (Median%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100075696"/>
+        <c:crossAx val="-2135919792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1103,15 +1182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1420,11 +1499,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W60"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L71" sqref="L71"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="1" sqref="H56:M56 H1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1485,7 +1565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1544,7 +1624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1606,7 +1686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1668,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1721,7 +1801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1774,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1818,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1864,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1952,7 +2032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1999,7 +2079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2048,7 +2128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2094,7 +2174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2186,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2279,7 +2359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2320,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2361,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2402,7 +2482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2448,7 +2528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2492,7 +2572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2533,7 +2613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2573,7 +2653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2687,7 +2767,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2765,7 +2845,7 @@
       </c>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2805,7 +2885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2845,7 +2925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2923,7 +3003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2961,7 +3041,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3047,7 +3127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3091,7 +3171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3135,7 +3215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3179,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3225,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="150" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="150" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3271,7 +3351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3315,7 +3395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3359,7 +3439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3405,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3451,7 +3531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3495,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3581,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3664,7 +3744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3707,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3771,7 +3851,7 @@
         <v>66.333333333333329</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" ref="I55:M55" si="4">AVERAGE(I1:I52)</f>
+        <f t="shared" ref="I55:M56" si="4">AVERAGE(I1:I52)</f>
         <v>82.666666666666671</v>
       </c>
       <c r="J55" s="5">
@@ -3794,107 +3874,150 @@
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5">
+        <f>MEDIAN(H2:H53)</f>
+        <v>64</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" ref="I56:M56" si="5">MEDIAN(I2:I53)</f>
+        <v>90</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="N56" s="6"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>13</v>
       </c>
-      <c r="H56">
+      <c r="H57">
         <f>STDEV(H1:H52)</f>
         <v>25.612236658805628</v>
       </c>
-      <c r="I56">
-        <f t="shared" ref="I56:M56" si="5">STDEV(I1:I52)</f>
+      <c r="I57">
+        <f t="shared" ref="I57:M57" si="6">STDEV(I1:I52)</f>
         <v>19.011224754514537</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="5"/>
+      <c r="J57">
+        <f t="shared" si="6"/>
         <v>22.279155825877364</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="5"/>
+      <c r="K57">
+        <f t="shared" si="6"/>
         <v>29.338925491905933</v>
       </c>
-      <c r="L56">
-        <f t="shared" si="5"/>
+      <c r="L57">
+        <f t="shared" si="6"/>
         <v>27.626330151633589</v>
       </c>
-      <c r="M56">
-        <f t="shared" si="5"/>
+      <c r="M57">
+        <f t="shared" si="6"/>
         <v>21.424303589935551</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5">
-        <f t="shared" ref="H57:M57" si="6">H56/SQRT(51)</f>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5">
+        <f t="shared" ref="H58:M58" si="7">H57/SQRT(51)</f>
         <v>3.5864304900737616</v>
       </c>
-      <c r="I57" s="5">
-        <f t="shared" si="6"/>
+      <c r="I58" s="5">
+        <f t="shared" si="7"/>
         <v>2.6621039396726993</v>
       </c>
-      <c r="J57" s="5">
-        <f t="shared" si="6"/>
+      <c r="J58" s="5">
+        <f t="shared" si="7"/>
         <v>3.1197058191932676</v>
       </c>
-      <c r="K57" s="5">
-        <f t="shared" si="6"/>
+      <c r="K58" s="5">
+        <f t="shared" si="7"/>
         <v>4.1082713053097555</v>
       </c>
-      <c r="L57" s="5">
-        <f t="shared" si="6"/>
+      <c r="L58" s="5">
+        <f t="shared" si="7"/>
         <v>3.8684599906115018</v>
       </c>
-      <c r="M57" s="5">
-        <f t="shared" si="6"/>
+      <c r="M58" s="5">
+        <f t="shared" si="7"/>
         <v>3.0000025631156544</v>
       </c>
-      <c r="N57" s="6"/>
-      <c r="O57" s="5"/>
-    </row>
-    <row r="58" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58" s="2"/>
-      <c r="O58"/>
-    </row>
-    <row r="60" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60" s="2"/>
-      <c r="O60"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59" s="2"/>
+      <c r="O59"/>
+    </row>
+    <row r="61" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61" s="2"/>
+      <c r="O61"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O57"/>
+  <autoFilter ref="A1:O52">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="More than 90%"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3902,10 +4025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4030,11 +4153,96 @@
         <v>3.7639009170511755</v>
       </c>
     </row>
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5">
+        <v>56</v>
+      </c>
+      <c r="G14" s="5">
+        <v>81</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="K17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="K18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="5">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="J1:L6">
     <sortCondition descending="1" ref="K1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4044,7 +4252,7 @@
   <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:B1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="460" windowWidth="25560" windowHeight="15660" activeTab="1"/>
+    <workbookView xWindow="6320" yWindow="1440" windowWidth="25560" windowHeight="15660"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="62">
   <si>
     <t>record_id</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>median</t>
+  </si>
+  <si>
+    <t>more than 90 median</t>
+  </si>
+  <si>
+    <t>50-90 median</t>
+  </si>
+  <si>
+    <t>up to 50 median</t>
+  </si>
+  <si>
+    <t>0 median</t>
   </si>
 </sst>
 </file>
@@ -1075,11 +1087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2135919792"/>
-        <c:axId val="-2130941424"/>
+        <c:axId val="2135788128"/>
+        <c:axId val="2135790864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135919792"/>
+        <c:axId val="2135788128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,7 +1120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130941424"/>
+        <c:crossAx val="2135790864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1116,7 +1128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130941424"/>
+        <c:axId val="2135790864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1147,7 +1159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135919792"/>
+        <c:crossAx val="2135788128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,11 +1512,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" activeCellId="1" sqref="H56:M56 H1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1988,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2441,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2691,7 +2703,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2729,7 +2741,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2807,7 +2819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2963,7 +2975,7 @@
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3041,7 +3053,7 @@
       </c>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3081,7 +3093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3485,7 +3497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3619,7 +3631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3703,7 +3715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>66.333333333333329</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" ref="I55:M56" si="4">AVERAGE(I1:I52)</f>
+        <f t="shared" ref="I55:M55" si="4">AVERAGE(I1:I52)</f>
         <v>82.666666666666671</v>
       </c>
       <c r="J55" s="5">
@@ -3977,44 +3989,142 @@
       <c r="O58" s="5"/>
     </row>
     <row r="59" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59"/>
+      <c r="A59" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
+      <c r="H59">
+        <f>MEDIAN(H19:H45)</f>
+        <v>68</v>
+      </c>
+      <c r="I59">
+        <f t="shared" ref="I59:M59" si="8">MEDIAN(I19:I45)</f>
+        <v>91</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59"/>
     </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60">
+        <f>MEDIAN(H2:H52)</f>
+        <v>64</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:M60" si="9">MEDIAN(I2:I52)</f>
+        <v>90</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+    </row>
     <row r="61" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61"/>
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
+      <c r="H61">
+        <f>MEDIAN(H3:H51)</f>
+        <v>64</v>
+      </c>
+      <c r="I61">
+        <f t="shared" ref="I61:M61" si="10">MEDIAN(I3:I51)</f>
+        <v>91</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62">
+        <f>MEDIAN(H10:H50)</f>
+        <v>68</v>
+      </c>
+      <c r="I62">
+        <f>MEDIAN(I10:I50)</f>
+        <v>91</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="I62:M62" si="11">MEDIAN(J10:J50)</f>
+        <v>71</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O52">
     <filterColumn colId="4">
       <filters>
-        <filter val="More than 90%"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4027,7 +4137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+    <sheetView topLeftCell="I7" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>

--- a/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
+++ b/Needs Analysis Survey/Needs Analysis Survey Results 27-Jul-2017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="1440" windowWidth="25560" windowHeight="15660"/>
+    <workbookView xWindow="3240" yWindow="1220" windowWidth="25560" windowHeight="15660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EndoscopicEarSurgery_DATA_09-Ma" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="76">
   <si>
     <t>record_id</t>
   </si>
@@ -228,6 +228,48 @@
   </si>
   <si>
     <t>0 median</t>
+  </si>
+  <si>
+    <t>interquartile range</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC137399/</t>
+  </si>
+  <si>
+    <t>50-92</t>
+  </si>
+  <si>
+    <t>75-99</t>
+  </si>
+  <si>
+    <t>50.5-86</t>
+  </si>
+  <si>
+    <t>49.5-88.5</t>
+  </si>
+  <si>
+    <t>49.5-83</t>
+  </si>
+  <si>
+    <t>65-98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Reaching Structures </t>
+  </si>
+  <si>
+    <t>2 Dissection and Removal of Cholesteatoma</t>
+  </si>
+  <si>
+    <t>3 Cutting Bone</t>
+  </si>
+  <si>
+    <t>4 Bleeding Control</t>
+  </si>
+  <si>
+    <t>5 Keeping the Lens Clean</t>
+  </si>
+  <si>
+    <t>6 Positioning a Graft</t>
   </si>
 </sst>
 </file>
@@ -826,7 +868,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -857,6 +899,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="110">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1024,6 +1067,209 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>75-99</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>65-98</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.4439803460629E-17"/>
+                  <c:y val="0.0178041543026706"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>50.5-86</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.00890207715133525"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>50-92</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.00890207715133531"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>49.5-88.5</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0148367952522255"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>49.5-83</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$K$13:$K$18</c:f>
@@ -1080,18 +1326,18 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2135788128"/>
-        <c:axId val="2135790864"/>
+        <c:axId val="-2109036384"/>
+        <c:axId val="-2111468496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2135788128"/>
+        <c:axId val="-2109036384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,7 +1366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135790864"/>
+        <c:crossAx val="-2111468496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1128,7 +1374,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2135790864"/>
+        <c:axId val="-2111468496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1159,7 +1405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2135788128"/>
+        <c:crossAx val="-2109036384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1511,12 +1757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomLeft" activeCell="H1" activeCellId="1" sqref="H63:M63 H1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1577,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1636,7 +1881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1698,7 +1943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1760,7 +2005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1813,7 +2058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1866,7 +2111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1910,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1956,7 +2201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2000,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2044,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2091,7 +2336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2140,7 +2385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2186,7 +2431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2232,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2278,7 +2523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2322,7 +2567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2371,7 +2616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2494,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2540,7 +2785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2584,7 +2829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2625,7 +2870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2665,7 +2910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2703,7 +2948,7 @@
       </c>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2741,7 +2986,7 @@
       </c>
       <c r="N26" s="11"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2779,7 +3024,7 @@
       </c>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2819,7 +3064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2857,7 +3102,7 @@
       </c>
       <c r="N29" s="11"/>
     </row>
-    <row r="30" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2897,7 +3142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2937,7 +3182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2975,7 +3220,7 @@
       </c>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3015,7 +3260,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3093,7 +3338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3139,7 +3384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3183,7 +3428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3227,7 +3472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3271,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3317,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="150" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="150" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3363,7 +3608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3407,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3451,7 +3696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3543,7 +3788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3587,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3631,7 +3876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3673,7 +3918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3715,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3756,7 +4001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3799,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4104,7 +4349,7 @@
         <v>91</v>
       </c>
       <c r="J62">
-        <f t="shared" ref="I62:M62" si="11">MEDIAN(J10:J50)</f>
+        <f t="shared" ref="J62:M62" si="11">MEDIAN(J10:J50)</f>
         <v>71</v>
       </c>
       <c r="K62">
@@ -4120,14 +4365,34 @@
         <v>84</v>
       </c>
     </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" t="s">
+        <v>66</v>
+      </c>
+      <c r="K63" t="s">
+        <v>67</v>
+      </c>
+      <c r="L63" t="s">
+        <v>68</v>
+      </c>
+      <c r="M63" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O52">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O52"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4135,15 +4400,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -4172,7 +4437,7 @@
         <v>2.6852344764801197</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>66.571428571428569</v>
       </c>
@@ -4201,7 +4466,7 @@
         <v>2.7697907314955232</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>3.495795794278338</v>
       </c>
@@ -4230,7 +4495,7 @@
         <v>3.0778302772710311</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
@@ -4241,7 +4506,7 @@
         <v>3.495795794278338</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
@@ -4252,7 +4517,7 @@
         <v>4.0015213193418901</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
@@ -4263,7 +4528,7 @@
         <v>3.7639009170511755</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -4288,8 +4553,11 @@
       <c r="L13" s="5">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.2">
+      <c r="M13" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>64</v>
       </c>
@@ -4314,37 +4582,72 @@
       <c r="L14" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="K15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="K16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="11:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="M16" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="K17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="11:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.2">
       <c r="K18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="5">
         <v>56</v>
+      </c>
+      <c r="M18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="90" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4361,13 +4664,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B307"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="E298" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
@@ -4380,7 +4683,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>76</v>
@@ -4388,23 +4691,23 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -4412,111 +4715,111 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B10">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B14">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B18" s="8">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -4524,23 +4827,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -4548,47 +4851,47 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B26">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>50</v>
@@ -4596,55 +4899,55 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B29">
-        <v>48</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B30">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B33">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>92</v>
@@ -4652,23 +4955,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>100</v>
@@ -4676,7 +4979,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>50</v>
@@ -4684,7 +4987,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>100</v>
@@ -4692,63 +4995,63 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B41">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B42">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B43">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B45">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B47">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>100</v>
@@ -4756,63 +5059,63 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B49">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B51">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B53">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B54">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B55">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B56">
         <v>50</v>
@@ -4820,39 +5123,39 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B57">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B58">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B59">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B60">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>100</v>
@@ -4860,39 +5163,39 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>90</v>
@@ -4900,31 +5203,31 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B69" s="8">
-        <v>89</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>50</v>
@@ -4932,15 +5235,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>100</v>
@@ -4948,63 +5251,63 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B74" s="7">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B75">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B76">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B77">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B78">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B79">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B80">
         <v>98</v>
@@ -5012,39 +5315,39 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B81">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B82">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B83">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B84">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B85">
         <v>64</v>
@@ -5052,23 +5355,23 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B86">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B87">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B88">
         <v>100</v>
@@ -5076,23 +5379,23 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B89">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B90">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B91">
         <v>100</v>
@@ -5100,23 +5403,23 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B93">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B94">
         <v>100</v>
@@ -5124,23 +5427,23 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B95">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B96">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B97">
         <v>100</v>
@@ -5148,15 +5451,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B98">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B99">
         <v>100</v>
@@ -5164,39 +5467,39 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B100">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B101">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B102">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103">
         <v>16</v>
-      </c>
-      <c r="B103">
-        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B104">
         <v>64</v>
@@ -5204,7 +5507,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B105">
         <v>62</v>
@@ -5212,7 +5515,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B106">
         <v>61</v>
@@ -5220,7 +5523,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B107">
         <v>50</v>
@@ -5228,7 +5531,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B108">
         <v>51</v>
@@ -5236,7 +5539,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B109">
         <v>69</v>
@@ -5244,7 +5547,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B110">
         <v>69</v>
@@ -5252,7 +5555,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B111">
         <v>70</v>
@@ -5260,7 +5563,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B112">
         <v>100</v>
@@ -5268,7 +5571,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B113">
         <v>71</v>
@@ -5276,7 +5579,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B114">
         <v>77</v>
@@ -5284,7 +5587,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B115">
         <v>71</v>
@@ -5292,7 +5595,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B116">
         <v>92</v>
@@ -5300,7 +5603,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B117">
         <v>99</v>
@@ -5308,7 +5611,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B118">
         <v>50</v>
@@ -5316,7 +5619,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B119">
         <v>61</v>
@@ -5324,7 +5627,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B120" s="8">
         <v>50</v>
@@ -5332,7 +5635,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B121">
         <v>50</v>
@@ -5340,7 +5643,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B122">
         <v>52</v>
@@ -5348,7 +5651,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B123">
         <v>50</v>
@@ -5356,7 +5659,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B124">
         <v>100</v>
@@ -5364,7 +5667,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B125" s="7">
         <v>41</v>
@@ -5372,7 +5675,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B126">
         <v>52</v>
@@ -5380,7 +5683,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B127">
         <v>86</v>
@@ -5388,7 +5691,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B128">
         <v>49</v>
@@ -5396,7 +5699,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B129">
         <v>99</v>
@@ -5404,7 +5707,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B130">
         <v>100</v>
@@ -5412,7 +5715,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5420,7 +5723,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B132">
         <v>57</v>
@@ -5428,7 +5731,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B133">
         <v>86</v>
@@ -5436,7 +5739,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B134">
         <v>57</v>
@@ -5444,7 +5747,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B135">
         <v>15</v>
@@ -5452,7 +5755,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B136">
         <v>66</v>
@@ -5460,7 +5763,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B137">
         <v>50</v>
@@ -5468,7 +5771,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B138">
         <v>85</v>
@@ -5476,7 +5779,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B139">
         <v>100</v>
@@ -5484,7 +5787,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B140">
         <v>76</v>
@@ -5492,7 +5795,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B141">
         <v>89</v>
@@ -5500,7 +5803,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B142">
         <v>100</v>
@@ -5508,7 +5811,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B143">
         <v>61</v>
@@ -5516,7 +5819,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B144">
         <v>50</v>
@@ -5524,7 +5827,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B145">
         <v>73</v>
@@ -5532,7 +5835,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B146">
         <v>76</v>
@@ -5540,7 +5843,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B147">
         <v>51</v>
@@ -5548,7 +5851,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B148">
         <v>50</v>
@@ -5556,7 +5859,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B149">
         <v>82</v>
@@ -5564,7 +5867,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B150">
         <v>100</v>
@@ -5572,7 +5875,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B151">
         <v>78</v>
@@ -5580,7 +5883,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B152">
         <v>93</v>
@@ -5588,7 +5891,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B153">
         <v>49</v>
@@ -5596,7 +5899,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B154">
         <v>32</v>
@@ -5604,135 +5907,135 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B155">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B156">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B157">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B158">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B159">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B160">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B161">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B162">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B163">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B164">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B165">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B166">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B168">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B169">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B170">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B171" s="8">
         <v>95</v>
@@ -5740,7 +6043,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B172">
         <v>50</v>
@@ -5748,15 +6051,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B173">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B174">
         <v>50</v>
@@ -5764,7 +6067,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B175">
         <v>100</v>
@@ -5772,271 +6075,271 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B176" s="7">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B177">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B178">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B179">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B180">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B181">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B182">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B184">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B185">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B186">
-        <v>68</v>
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B187">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B188">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B189">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B190">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B191">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B192">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B193">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B194">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B195">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B196">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B197">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B198">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B200">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B201">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B202">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B203">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B204">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B206">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B207">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B208">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B209">
         <v>7</v>
@@ -6044,71 +6347,71 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B210">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B211">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B212">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B213">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B214">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B215">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B216">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B217">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B218">
         <v>5</v>
@@ -6116,39 +6419,39 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B219">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B220">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B221">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B222" s="8">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B223">
         <v>50</v>
@@ -6156,143 +6459,143 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B224">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B225">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B226">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B227" s="7">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B228">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B229">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B230">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B231">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B232">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B233">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B234">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B235">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B236">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B237">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B238">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B239">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B240">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B241">
         <v>68</v>
@@ -6300,79 +6603,79 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B242">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B243">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B244">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B245">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B246">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B247">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B248">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B249">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B250">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B251">
         <v>83</v>
@@ -6380,7 +6683,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B252">
         <v>74</v>
@@ -6388,167 +6691,167 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B253">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B254">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B255">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B256">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B257">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B258">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B259">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B260">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B261">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B262">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B263">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B264">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B265">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B266">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B267">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B268">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B269">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B270">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B271">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B272">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B273" s="8">
         <v>50</v>
@@ -6556,7 +6859,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B274">
         <v>50</v>
@@ -6564,63 +6867,63 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B275">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B276">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B277">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B278" s="7">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B279">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B280">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B281">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B282">
         <v>100</v>
@@ -6628,15 +6931,15 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B283">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B284">
         <v>98</v>
@@ -6644,135 +6947,135 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B285">
-        <v>71</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B286">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B287">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B288">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B289">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B290">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B291">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B292">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B293">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B294">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B295">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B296">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B297">
-        <v>100</v>
+        <v>53</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B298">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B299">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B300">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B301">
         <v>100</v>
@@ -6780,7 +7083,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B302">
         <v>83</v>
@@ -6788,42 +7091,42 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B303">
-        <v>100</v>
+        <v>74</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B304">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B305">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B306">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B307">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
